--- a/Laporan_Iuran_In_Out_Masjid_Al_Multajam_2023.xlsx
+++ b/Laporan_Iuran_In_Out_Masjid_Al_Multajam_2023.xlsx
@@ -5,17 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Pemasukan_pengeluaran_Masjid" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Pemasukan_Pengeluaran_prelek" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Kotak amal" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="form" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="List donatur" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Data Total" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Pemasukan_pengeluaran_Masjid" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="Pemasukan_Pengeluaran_prelek" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Kotak amal" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="form" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="List donatur" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Data Total" sheetId="6" state="hidden" r:id="rId7"/>
     <sheet name="CHECK" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Sheet8" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Sheet8" sheetId="8" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="595">
   <si>
     <t xml:space="preserve">MASJID CLUSTER GRAND SUTERA</t>
   </si>
@@ -308,7 +308,38 @@
     <t xml:space="preserve">1 Lampu 10 watt</t>
   </si>
   <si>
+    <t xml:space="preserve">02 APRIL 2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bayar tukang 1 orang Benerin terpal mushola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 APRIL 2023</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[I] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Muhammad Rifki SG6 NO 18</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">11 APRIL 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOKEN LISTRIK 200K</t>
   </si>
   <si>
     <t xml:space="preserve">Kas Kotak Amal Selama Romadhon</t>
@@ -1010,12 +1041,6 @@
     <t xml:space="preserve">TOTAL IURAN</t>
   </si>
   <si>
-    <t xml:space="preserve">PENCATAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DETAIL</t>
-  </si>
-  <si>
     <t xml:space="preserve">Baihaki Sulaiman</t>
   </si>
   <si>
@@ -1031,9 +1056,6 @@
     <t xml:space="preserve">Ade Gunawan</t>
   </si>
   <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dhana Dwicahya</t>
   </si>
   <si>
@@ -1238,9 +1260,6 @@
     <t xml:space="preserve">M. Adrio Vani/ IVAN</t>
   </si>
   <si>
-    <t xml:space="preserve">U EVAN 600 P SUGENG 100</t>
-  </si>
-  <si>
     <t xml:space="preserve">Irwan Maulana</t>
   </si>
   <si>
@@ -1274,9 +1293,6 @@
     <t xml:space="preserve">Muhammad Renaldi/ AGUS</t>
   </si>
   <si>
-    <t xml:space="preserve">U EVAN 100 P SUGENG 1JT</t>
-  </si>
-  <si>
     <t xml:space="preserve">Agus Fajri</t>
   </si>
   <si>
@@ -1304,18 +1320,12 @@
     <t xml:space="preserve">Rudy Irwanto</t>
   </si>
   <si>
-    <t xml:space="preserve">NOVIE 900K P SUGENG 100K</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lurus Wisnu Hidayat</t>
   </si>
   <si>
     <t xml:space="preserve">Bayu Wijanarko</t>
   </si>
   <si>
-    <t xml:space="preserve">NOVIE 100K P SUGENG 200K</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wendy</t>
   </si>
   <si>
@@ -1346,9 +1356,6 @@
     <t xml:space="preserve">Ari Dwi Syahri</t>
   </si>
   <si>
-    <t xml:space="preserve">NOVIE 100K P SUGENG 100 K</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dhany Susanto</t>
   </si>
   <si>
@@ -1388,9 +1395,6 @@
     <t xml:space="preserve">Muhamad Taufik Ramdan</t>
   </si>
   <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
     <t xml:space="preserve">Andika Yusuf Putra</t>
   </si>
   <si>
@@ -1403,9 +1407,6 @@
     <t xml:space="preserve">Dedi Andriyani</t>
   </si>
   <si>
-    <t xml:space="preserve">P SUGENG 100 K U EVAN 100K</t>
-  </si>
-  <si>
     <t xml:space="preserve">Roni Candra</t>
   </si>
   <si>
@@ -1556,10 +1557,7 @@
     <t xml:space="preserve">Fibri Bachtiar M.Sururi</t>
   </si>
   <si>
-    <t xml:space="preserve">Rachmat Rinaldo Abiyoga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P SUGENG 100 K NOVIE 100K</t>
+    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">Amrullah</t>
@@ -1839,9 +1837,6 @@
   </si>
   <si>
     <t xml:space="preserve">[D] H.USMAN,HJMUHAMAH,NURLAELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N &amp; S</t>
   </si>
   <si>
     <t xml:space="preserve">GRAND TOTAL</t>
@@ -1864,7 +1859,7 @@
     <numFmt numFmtId="173" formatCode="_([$IDR]\ * #,##0.00_);_([$IDR]\ * \(#,##0.00\);_([$IDR]\ * \-??_);_(@_)"/>
     <numFmt numFmtId="174" formatCode="0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1899,6 +1894,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1972,6 +1972,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="14"/>
       <name val="Times New Roman"/>
       <family val="2"/>
@@ -2080,7 +2081,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -2088,7 +2089,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2157,19 +2158,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2177,7 +2178,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2193,7 +2194,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2201,7 +2202,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2213,7 +2214,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2221,11 +2222,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2233,11 +2234,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2245,7 +2246,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2253,7 +2254,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2277,119 +2278,115 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="171" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="174" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="174" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2397,7 +2394,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4124,11 +4121,11 @@
   <dimension ref="B1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E59" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
-      <selection pane="bottomRight" activeCell="E71" activeCellId="0" sqref="E71"/>
+      <selection pane="bottomLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
+      <selection pane="bottomRight" activeCell="D69" activeCellId="0" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5743,12 +5740,18 @@
       <c r="B68" s="10" t="n">
         <v>65</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="C68" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G68" s="3" t="n">
+      <c r="D68" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9" t="n">
         <v>100000</v>
       </c>
+      <c r="H68" s="9"/>
       <c r="I68" s="9" t="n">
         <f aca="false">J67</f>
         <v>2000</v>
@@ -5756,6 +5759,56 @@
       <c r="J68" s="9" t="n">
         <f aca="false">(I68+E68)-G68</f>
         <v>-98000</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="10" t="n">
+        <v>66</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" s="9" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9" t="n">
+        <f aca="false">J68</f>
+        <v>-98000</v>
+      </c>
+      <c r="J69" s="9" t="n">
+        <f aca="false">(I69+E69)-G69</f>
+        <v>-48000</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="10" t="n">
+        <v>67</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9" t="n">
+        <v>202000</v>
+      </c>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9" t="n">
+        <f aca="false">J69</f>
+        <v>-48000</v>
+      </c>
+      <c r="J70" s="9" t="n">
+        <f aca="false">(I70+E70)-G70</f>
+        <v>-250000</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5811,7 +5864,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -5826,7 +5879,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -5841,7 +5894,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -5856,40 +5909,40 @@
     </row>
     <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5981,7 +6034,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
       <c r="L8" s="28" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6479,7 +6532,7 @@
   </sheetPr>
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R27" activeCellId="0" sqref="R27"/>
     </sheetView>
   </sheetViews>
@@ -6505,41 +6558,41 @@
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="31" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I1" s="32"/>
       <c r="J1" s="31" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="33" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I2" s="32"/>
       <c r="J2" s="33" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="34" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
       <c r="I3" s="32"/>
       <c r="J3" s="34" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
       <c r="M3" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
@@ -6547,42 +6600,42 @@
     <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="35"/>
       <c r="B4" s="36" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="38"/>
       <c r="J4" s="36" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L4" s="36" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M4" s="36" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="N4" s="37" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P4" s="35"/>
     </row>
@@ -6756,84 +6809,84 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="34" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="41"/>
       <c r="E13" s="34" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="41"/>
       <c r="I13" s="32"/>
       <c r="J13" s="34" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K13" s="34"/>
       <c r="L13" s="41"/>
       <c r="M13" s="34" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="N13" s="34"/>
       <c r="O13" s="41"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I14" s="32"/>
       <c r="J14" s="12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I15" s="32"/>
       <c r="J15" s="12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I18" s="32"/>
       <c r="J18" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6854,41 +6907,41 @@
     <row r="20" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="31" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I21" s="32"/>
       <c r="J21" s="31" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="33" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I22" s="32"/>
       <c r="J22" s="33" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="34" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
       <c r="I23" s="32"/>
       <c r="J23" s="34" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N23" s="34"/>
       <c r="O23" s="34"/>
@@ -6896,42 +6949,42 @@
     <row r="24" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="35"/>
       <c r="B24" s="36" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H24" s="35"/>
       <c r="I24" s="38"/>
       <c r="J24" s="36" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K24" s="37" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L24" s="36" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M24" s="36" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="N24" s="37" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="O24" s="36" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P24" s="35"/>
     </row>
@@ -7105,84 +7158,84 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="34" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C33" s="34"/>
       <c r="D33" s="41"/>
       <c r="E33" s="34" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="41"/>
       <c r="I33" s="32"/>
       <c r="J33" s="34" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K33" s="34"/>
       <c r="L33" s="41"/>
       <c r="M33" s="34" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="N33" s="34"/>
       <c r="O33" s="41"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I34" s="32"/>
       <c r="J34" s="12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I35" s="32"/>
       <c r="J35" s="12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I38" s="32"/>
       <c r="J38" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7203,41 +7256,41 @@
     <row r="40" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="31" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I41" s="32"/>
       <c r="J41" s="31" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="33" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I42" s="32"/>
       <c r="J42" s="33" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="34" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
       <c r="E43" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
       <c r="I43" s="32"/>
       <c r="J43" s="34" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K43" s="34"/>
       <c r="L43" s="34"/>
       <c r="M43" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N43" s="34"/>
       <c r="O43" s="34"/>
@@ -7245,42 +7298,42 @@
     <row r="44" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="35"/>
       <c r="B44" s="36" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F44" s="37" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H44" s="35"/>
       <c r="I44" s="38"/>
       <c r="J44" s="36" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K44" s="37" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L44" s="36" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M44" s="36" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="N44" s="37" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="O44" s="36" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P44" s="35"/>
     </row>
@@ -7454,84 +7507,84 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="34" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C53" s="34"/>
       <c r="D53" s="41"/>
       <c r="E53" s="34" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F53" s="34"/>
       <c r="G53" s="41"/>
       <c r="I53" s="32"/>
       <c r="J53" s="34" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K53" s="34"/>
       <c r="L53" s="41"/>
       <c r="M53" s="34" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="N53" s="34"/>
       <c r="O53" s="41"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I54" s="32"/>
       <c r="J54" s="12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="N54" s="12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I55" s="32"/>
       <c r="J55" s="12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N55" s="12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I58" s="32"/>
       <c r="J58" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="N58" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -7615,7 +7668,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -7626,13 +7679,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F5" s="45" t="n">
         <v>100000</v>
@@ -7640,7 +7693,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>20</v>
@@ -7652,18 +7705,18 @@
         <v>250000</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F7" s="45" t="n">
         <v>100000</v>
@@ -7671,13 +7724,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F8" s="45" t="n">
         <v>100000</v>
@@ -7685,13 +7738,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F9" s="45" t="n">
         <v>200000</v>
@@ -7699,13 +7752,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F10" s="45" t="n">
         <v>100000</v>
@@ -7713,30 +7766,30 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F11" s="45" t="n">
         <v>100000</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F12" s="45" t="n">
         <v>500000</v>
@@ -7744,13 +7797,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F13" s="45" t="n">
         <v>100000</v>
@@ -7758,13 +7811,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F14" s="45" t="n">
         <v>100000</v>
@@ -7772,13 +7825,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F15" s="45" t="n">
         <v>100000</v>
@@ -7786,13 +7839,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F16" s="45" t="n">
         <v>50000</v>
@@ -7800,13 +7853,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F17" s="45" t="n">
         <v>50000</v>
@@ -7814,13 +7867,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F18" s="45" t="n">
         <v>50000</v>
@@ -7828,13 +7881,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F19" s="45" t="n">
         <v>50000</v>
@@ -7842,13 +7895,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F20" s="45" t="n">
         <v>20000</v>
@@ -7856,13 +7909,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F21" s="45" t="n">
         <v>50000</v>
@@ -7870,30 +7923,30 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F22" s="45" t="n">
         <v>100000</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="44" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F23" s="45" t="n">
         <v>100000</v>
@@ -7901,13 +7954,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="44" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F24" s="45" t="n">
         <v>50000</v>
@@ -7915,13 +7968,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="44" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F25" s="45" t="n">
         <v>150000</v>
@@ -7929,13 +7982,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="44" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F26" s="45" t="n">
         <v>200000</v>
@@ -7943,13 +7996,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="44" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F27" s="45" t="n">
         <v>100000</v>
@@ -7957,13 +8010,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="44" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F28" s="45" t="n">
         <v>50000</v>
@@ -7971,13 +8024,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="44" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F29" s="45" t="n">
         <v>100000</v>
@@ -7985,13 +8038,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="44" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F30" s="45" t="n">
         <v>50000</v>
@@ -7999,13 +8052,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="44" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F31" s="45" t="n">
         <v>100000</v>
@@ -8139,7 +8192,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="54" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8170,10 +8223,10 @@
       </c>
       <c r="B8" s="55"/>
       <c r="C8" s="56" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D8" s="57" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E8" s="58"/>
       <c r="F8" s="59" t="n">
@@ -8187,7 +8240,7 @@
       </c>
       <c r="K8" s="62"/>
       <c r="L8" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8196,10 +8249,10 @@
       </c>
       <c r="B9" s="55"/>
       <c r="C9" s="56" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="59" t="n">
@@ -8214,7 +8267,7 @@
       </c>
       <c r="K9" s="62"/>
       <c r="L9" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8223,10 +8276,10 @@
       </c>
       <c r="B10" s="55"/>
       <c r="C10" s="56" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E10" s="58"/>
       <c r="F10" s="59" t="n">
@@ -8241,7 +8294,7 @@
       </c>
       <c r="K10" s="62"/>
       <c r="L10" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8250,10 +8303,10 @@
       </c>
       <c r="B11" s="55"/>
       <c r="C11" s="56" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="59" t="n">
@@ -8268,7 +8321,7 @@
       </c>
       <c r="K11" s="62"/>
       <c r="L11" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8277,10 +8330,10 @@
       </c>
       <c r="B12" s="55"/>
       <c r="C12" s="56" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E12" s="58"/>
       <c r="F12" s="59" t="n">
@@ -8295,7 +8348,7 @@
       </c>
       <c r="K12" s="62"/>
       <c r="L12" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8304,10 +8357,10 @@
       </c>
       <c r="B13" s="55"/>
       <c r="C13" s="56" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E13" s="58"/>
       <c r="F13" s="59" t="n">
@@ -8322,7 +8375,7 @@
       </c>
       <c r="K13" s="62"/>
       <c r="L13" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8331,10 +8384,10 @@
       </c>
       <c r="B14" s="55"/>
       <c r="C14" s="56" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="59" t="n">
@@ -8349,7 +8402,7 @@
       </c>
       <c r="K14" s="62"/>
       <c r="L14" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8358,10 +8411,10 @@
       </c>
       <c r="B15" s="55"/>
       <c r="C15" s="56" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E15" s="58"/>
       <c r="F15" s="59" t="n">
@@ -8376,7 +8429,7 @@
       </c>
       <c r="K15" s="62"/>
       <c r="L15" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8385,10 +8438,10 @@
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="56" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E16" s="58"/>
       <c r="F16" s="59" t="n">
@@ -8403,7 +8456,7 @@
       </c>
       <c r="K16" s="62"/>
       <c r="L16" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8412,10 +8465,10 @@
       </c>
       <c r="B17" s="55"/>
       <c r="C17" s="56" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E17" s="58"/>
       <c r="F17" s="59" t="n">
@@ -8430,7 +8483,7 @@
       </c>
       <c r="K17" s="62"/>
       <c r="L17" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8439,10 +8492,10 @@
       </c>
       <c r="B18" s="55"/>
       <c r="C18" s="56" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E18" s="58"/>
       <c r="F18" s="59" t="n">
@@ -8457,7 +8510,7 @@
       </c>
       <c r="K18" s="62"/>
       <c r="L18" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8466,10 +8519,10 @@
       </c>
       <c r="B19" s="55"/>
       <c r="C19" s="63" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E19" s="64"/>
       <c r="F19" s="61" t="n">
@@ -8484,7 +8537,7 @@
       </c>
       <c r="K19" s="62"/>
       <c r="L19" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8493,10 +8546,10 @@
       </c>
       <c r="B20" s="55"/>
       <c r="C20" s="63" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="61" t="n">
@@ -8511,7 +8564,7 @@
       </c>
       <c r="K20" s="62"/>
       <c r="L20" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8520,10 +8573,10 @@
       </c>
       <c r="B21" s="55"/>
       <c r="C21" s="63" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E21" s="64"/>
       <c r="F21" s="61" t="n">
@@ -8538,7 +8591,7 @@
       </c>
       <c r="K21" s="62"/>
       <c r="L21" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8547,10 +8600,10 @@
       </c>
       <c r="B22" s="55"/>
       <c r="C22" s="63" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="61" t="n">
@@ -8565,7 +8618,7 @@
       </c>
       <c r="K22" s="62"/>
       <c r="L22" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8574,10 +8627,10 @@
       </c>
       <c r="B23" s="55"/>
       <c r="C23" s="63" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E23" s="64"/>
       <c r="F23" s="61" t="n">
@@ -8592,7 +8645,7 @@
       </c>
       <c r="K23" s="62"/>
       <c r="L23" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8601,10 +8654,10 @@
       </c>
       <c r="B24" s="55"/>
       <c r="C24" s="63" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E24" s="64"/>
       <c r="F24" s="61" t="n">
@@ -8619,7 +8672,7 @@
       </c>
       <c r="K24" s="62"/>
       <c r="L24" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8628,10 +8681,10 @@
       </c>
       <c r="B25" s="55"/>
       <c r="C25" s="63" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E25" s="64"/>
       <c r="F25" s="61" t="n">
@@ -8646,7 +8699,7 @@
       </c>
       <c r="K25" s="62"/>
       <c r="L25" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8655,10 +8708,10 @@
       </c>
       <c r="B26" s="55"/>
       <c r="C26" s="63" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E26" s="64"/>
       <c r="F26" s="61" t="n">
@@ -8673,7 +8726,7 @@
       </c>
       <c r="K26" s="62"/>
       <c r="L26" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8682,10 +8735,10 @@
       </c>
       <c r="B27" s="55"/>
       <c r="C27" s="63" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D27" s="53" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E27" s="64"/>
       <c r="F27" s="61" t="n">
@@ -8700,7 +8753,7 @@
       </c>
       <c r="K27" s="62"/>
       <c r="L27" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8709,10 +8762,10 @@
       </c>
       <c r="B28" s="55"/>
       <c r="C28" s="63" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E28" s="64"/>
       <c r="F28" s="61" t="n">
@@ -8727,7 +8780,7 @@
       </c>
       <c r="K28" s="62"/>
       <c r="L28" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8736,10 +8789,10 @@
       </c>
       <c r="B29" s="55"/>
       <c r="C29" s="63" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D29" s="53" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E29" s="64"/>
       <c r="F29" s="61" t="n">
@@ -8754,7 +8807,7 @@
       </c>
       <c r="K29" s="62"/>
       <c r="L29" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8763,10 +8816,10 @@
       </c>
       <c r="B30" s="55"/>
       <c r="C30" s="63" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D30" s="53" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E30" s="64"/>
       <c r="F30" s="61" t="n">
@@ -8781,7 +8834,7 @@
       </c>
       <c r="K30" s="62"/>
       <c r="L30" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8790,10 +8843,10 @@
       </c>
       <c r="B31" s="62"/>
       <c r="C31" s="63" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E31" s="64"/>
       <c r="F31" s="61" t="n">
@@ -8808,7 +8861,7 @@
       </c>
       <c r="K31" s="62"/>
       <c r="L31" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8817,10 +8870,10 @@
       </c>
       <c r="B32" s="62"/>
       <c r="C32" s="63" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E32" s="64"/>
       <c r="F32" s="61" t="n">
@@ -8835,7 +8888,7 @@
       </c>
       <c r="K32" s="62"/>
       <c r="L32" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8844,10 +8897,10 @@
       </c>
       <c r="B33" s="62"/>
       <c r="C33" s="63" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D33" s="53" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E33" s="64"/>
       <c r="F33" s="61" t="n">
@@ -8862,7 +8915,7 @@
       </c>
       <c r="K33" s="62"/>
       <c r="L33" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8871,10 +8924,10 @@
       </c>
       <c r="B34" s="62"/>
       <c r="C34" s="63" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D34" s="53" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E34" s="64"/>
       <c r="F34" s="61" t="n">
@@ -8889,7 +8942,7 @@
       </c>
       <c r="K34" s="62"/>
       <c r="L34" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8898,10 +8951,10 @@
       </c>
       <c r="B35" s="62"/>
       <c r="C35" s="63" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D35" s="53" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E35" s="64"/>
       <c r="F35" s="61" t="n">
@@ -8916,7 +8969,7 @@
       </c>
       <c r="K35" s="62"/>
       <c r="L35" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8925,10 +8978,10 @@
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="63" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D36" s="53" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E36" s="64"/>
       <c r="F36" s="61" t="n">
@@ -8943,7 +8996,7 @@
       </c>
       <c r="K36" s="62"/>
       <c r="L36" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8952,10 +9005,10 @@
       </c>
       <c r="B37" s="62"/>
       <c r="C37" s="63" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D37" s="53" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E37" s="64"/>
       <c r="F37" s="61" t="n">
@@ -8970,7 +9023,7 @@
       </c>
       <c r="K37" s="62"/>
       <c r="L37" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8979,10 +9032,10 @@
       </c>
       <c r="B38" s="62"/>
       <c r="C38" s="63" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D38" s="53" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E38" s="64"/>
       <c r="F38" s="61" t="n">
@@ -8997,7 +9050,7 @@
       </c>
       <c r="K38" s="62"/>
       <c r="L38" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9006,10 +9059,10 @@
       </c>
       <c r="B39" s="62"/>
       <c r="C39" s="63" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D39" s="53" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E39" s="64"/>
       <c r="F39" s="61" t="n">
@@ -9024,7 +9077,7 @@
       </c>
       <c r="K39" s="62"/>
       <c r="L39" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9033,10 +9086,10 @@
       </c>
       <c r="B40" s="62"/>
       <c r="C40" s="63" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D40" s="53" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E40" s="64"/>
       <c r="F40" s="61" t="n">
@@ -9051,7 +9104,7 @@
       </c>
       <c r="K40" s="62"/>
       <c r="L40" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9060,10 +9113,10 @@
       </c>
       <c r="B41" s="62"/>
       <c r="C41" s="63" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D41" s="53" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E41" s="64"/>
       <c r="F41" s="61" t="n">
@@ -9078,7 +9131,7 @@
       </c>
       <c r="K41" s="62"/>
       <c r="L41" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9087,10 +9140,10 @@
       </c>
       <c r="B42" s="62"/>
       <c r="C42" s="63" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D42" s="53" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E42" s="64"/>
       <c r="F42" s="61" t="n">
@@ -9105,7 +9158,7 @@
       </c>
       <c r="K42" s="62"/>
       <c r="L42" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9114,10 +9167,10 @@
       </c>
       <c r="B43" s="62"/>
       <c r="C43" s="63" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D43" s="53" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E43" s="64"/>
       <c r="F43" s="61" t="n">
@@ -9132,7 +9185,7 @@
       </c>
       <c r="K43" s="62"/>
       <c r="L43" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9141,10 +9194,10 @@
       </c>
       <c r="B44" s="62"/>
       <c r="C44" s="63" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D44" s="53" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E44" s="64"/>
       <c r="F44" s="61" t="n">
@@ -9159,7 +9212,7 @@
       </c>
       <c r="K44" s="62"/>
       <c r="L44" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9168,10 +9221,10 @@
       </c>
       <c r="B45" s="62"/>
       <c r="C45" s="63" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D45" s="53" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E45" s="64"/>
       <c r="F45" s="61" t="n">
@@ -9186,7 +9239,7 @@
       </c>
       <c r="K45" s="62"/>
       <c r="L45" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9195,10 +9248,10 @@
       </c>
       <c r="B46" s="62"/>
       <c r="C46" s="63" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D46" s="53" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E46" s="64"/>
       <c r="F46" s="61" t="n">
@@ -9213,7 +9266,7 @@
       </c>
       <c r="K46" s="62"/>
       <c r="L46" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9222,10 +9275,10 @@
       </c>
       <c r="B47" s="62"/>
       <c r="C47" s="63" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D47" s="53" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E47" s="64"/>
       <c r="F47" s="61" t="n">
@@ -9240,7 +9293,7 @@
       </c>
       <c r="K47" s="62"/>
       <c r="L47" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9249,10 +9302,10 @@
       </c>
       <c r="B48" s="62"/>
       <c r="C48" s="63" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D48" s="53" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E48" s="64"/>
       <c r="F48" s="61" t="n">
@@ -9267,7 +9320,7 @@
       </c>
       <c r="K48" s="62"/>
       <c r="L48" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9276,10 +9329,10 @@
       </c>
       <c r="B49" s="62"/>
       <c r="C49" s="63" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D49" s="53" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E49" s="64"/>
       <c r="F49" s="61" t="n">
@@ -9294,7 +9347,7 @@
       </c>
       <c r="K49" s="62"/>
       <c r="L49" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9303,10 +9356,10 @@
       </c>
       <c r="B50" s="62"/>
       <c r="C50" s="63" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D50" s="53" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E50" s="64"/>
       <c r="F50" s="61" t="n">
@@ -9321,7 +9374,7 @@
       </c>
       <c r="K50" s="62"/>
       <c r="L50" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9330,10 +9383,10 @@
       </c>
       <c r="B51" s="62"/>
       <c r="C51" s="63" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D51" s="53" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E51" s="64"/>
       <c r="F51" s="61" t="n">
@@ -9348,7 +9401,7 @@
       </c>
       <c r="K51" s="62"/>
       <c r="L51" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9357,10 +9410,10 @@
       </c>
       <c r="B52" s="62"/>
       <c r="C52" s="63" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D52" s="53" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E52" s="64"/>
       <c r="F52" s="61" t="n">
@@ -9375,7 +9428,7 @@
       </c>
       <c r="K52" s="62"/>
       <c r="L52" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9384,10 +9437,10 @@
       </c>
       <c r="B53" s="62"/>
       <c r="C53" s="65" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D53" s="53" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E53" s="64"/>
       <c r="F53" s="61" t="n">
@@ -9401,10 +9454,10 @@
         <v>30700000</v>
       </c>
       <c r="K53" s="53" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L53" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9413,10 +9466,10 @@
       </c>
       <c r="B54" s="62"/>
       <c r="C54" s="63" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D54" s="53" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E54" s="64"/>
       <c r="F54" s="61" t="n">
@@ -9431,7 +9484,7 @@
       </c>
       <c r="K54" s="62"/>
       <c r="L54" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9440,10 +9493,10 @@
         <v>44507</v>
       </c>
       <c r="C55" s="67" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D55" s="68" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E55" s="61" t="n">
         <v>100000</v>
@@ -9455,7 +9508,7 @@
       <c r="J55" s="62"/>
       <c r="K55" s="62"/>
       <c r="L55" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9464,10 +9517,10 @@
         <v>44520</v>
       </c>
       <c r="C56" s="67" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D56" s="68" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E56" s="61" t="n">
         <v>100000</v>
@@ -9479,7 +9532,7 @@
       <c r="J56" s="62"/>
       <c r="K56" s="62"/>
       <c r="L56" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9488,10 +9541,10 @@
         <v>44527</v>
       </c>
       <c r="C57" s="67" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D57" s="68" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E57" s="61" t="n">
         <v>100000</v>
@@ -9503,7 +9556,7 @@
       <c r="J57" s="62"/>
       <c r="K57" s="62"/>
       <c r="L57" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9512,10 +9565,10 @@
         <v>44233</v>
       </c>
       <c r="C58" s="67" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D58" s="68" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E58" s="61" t="n">
         <v>200000</v>
@@ -9527,7 +9580,7 @@
       <c r="J58" s="62"/>
       <c r="K58" s="62"/>
       <c r="L58" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9536,10 +9589,10 @@
         <v>44507</v>
       </c>
       <c r="C59" s="67" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D59" s="68" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E59" s="61" t="n">
         <v>100000</v>
@@ -9551,7 +9604,7 @@
       <c r="J59" s="62"/>
       <c r="K59" s="62"/>
       <c r="L59" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9560,10 +9613,10 @@
         <v>44507</v>
       </c>
       <c r="C60" s="67" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D60" s="68" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E60" s="61" t="n">
         <v>100000</v>
@@ -9575,7 +9628,7 @@
       <c r="J60" s="62"/>
       <c r="K60" s="62"/>
       <c r="L60" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9584,10 +9637,10 @@
         <v>44677</v>
       </c>
       <c r="C61" s="67" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D61" s="68" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E61" s="61" t="n">
         <v>200000</v>
@@ -9599,7 +9652,7 @@
       <c r="J61" s="62"/>
       <c r="K61" s="62"/>
       <c r="L61" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9608,10 +9661,10 @@
         <v>44507</v>
       </c>
       <c r="C62" s="67" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D62" s="68" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E62" s="61" t="n">
         <v>100000</v>
@@ -9623,7 +9676,7 @@
       <c r="J62" s="62"/>
       <c r="K62" s="62"/>
       <c r="L62" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9632,10 +9685,10 @@
         <v>44527</v>
       </c>
       <c r="C63" s="67" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D63" s="68" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E63" s="61" t="n">
         <v>100000</v>
@@ -9647,7 +9700,7 @@
       <c r="J63" s="62"/>
       <c r="K63" s="62"/>
       <c r="L63" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9656,10 +9709,10 @@
         <v>44507</v>
       </c>
       <c r="C64" s="67" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D64" s="68" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E64" s="61" t="n">
         <v>100000</v>
@@ -9671,7 +9724,7 @@
       <c r="J64" s="62"/>
       <c r="K64" s="62"/>
       <c r="L64" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9680,10 +9733,10 @@
         <v>44582</v>
       </c>
       <c r="C65" s="67" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D65" s="68" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E65" s="61" t="n">
         <v>100000</v>
@@ -9695,7 +9748,7 @@
       <c r="J65" s="62"/>
       <c r="K65" s="62"/>
       <c r="L65" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9704,10 +9757,10 @@
         <v>44582</v>
       </c>
       <c r="C66" s="67" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D66" s="68" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E66" s="61" t="n">
         <v>100000</v>
@@ -9719,7 +9772,7 @@
       <c r="J66" s="62"/>
       <c r="K66" s="62"/>
       <c r="L66" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9728,10 +9781,10 @@
         <v>44527</v>
       </c>
       <c r="C67" s="67" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D67" s="68" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E67" s="61" t="n">
         <v>100000</v>
@@ -9743,7 +9796,7 @@
       <c r="J67" s="62"/>
       <c r="K67" s="62"/>
       <c r="L67" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9752,10 +9805,10 @@
         <v>44527</v>
       </c>
       <c r="C68" s="67" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D68" s="68" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E68" s="61" t="n">
         <v>100000</v>
@@ -9767,7 +9820,7 @@
       <c r="J68" s="62"/>
       <c r="K68" s="62"/>
       <c r="L68" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9776,10 +9829,10 @@
         <v>44710</v>
       </c>
       <c r="C69" s="67" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D69" s="68" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E69" s="61" t="n">
         <v>100000</v>
@@ -9791,7 +9844,7 @@
       <c r="J69" s="62"/>
       <c r="K69" s="62"/>
       <c r="L69" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9800,10 +9853,10 @@
         <v>44583</v>
       </c>
       <c r="C70" s="69" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D70" s="68" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E70" s="61" t="n">
         <v>100000</v>
@@ -9815,7 +9868,7 @@
       <c r="J70" s="62"/>
       <c r="K70" s="62"/>
       <c r="L70" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9824,10 +9877,10 @@
         <v>44630</v>
       </c>
       <c r="C71" s="69" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D71" s="68" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E71" s="61" t="n">
         <v>100000</v>
@@ -9839,7 +9892,7 @@
       <c r="J71" s="62"/>
       <c r="K71" s="62"/>
       <c r="L71" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9848,10 +9901,10 @@
         <v>44696</v>
       </c>
       <c r="C72" s="69" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D72" s="68" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E72" s="61" t="n">
         <v>100000</v>
@@ -9863,7 +9916,7 @@
       <c r="J72" s="62"/>
       <c r="K72" s="62"/>
       <c r="L72" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9872,10 +9925,10 @@
         <v>44710</v>
       </c>
       <c r="C73" s="67" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D73" s="68" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E73" s="61" t="n">
         <v>100000</v>
@@ -9887,7 +9940,7 @@
       <c r="J73" s="62"/>
       <c r="K73" s="62"/>
       <c r="L73" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9896,10 +9949,10 @@
         <v>44597</v>
       </c>
       <c r="C74" s="67" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D74" s="68" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E74" s="61" t="n">
         <v>200000</v>
@@ -9911,7 +9964,7 @@
       <c r="J74" s="62"/>
       <c r="K74" s="62"/>
       <c r="L74" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9920,10 +9973,10 @@
         <v>44512</v>
       </c>
       <c r="C75" s="67" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D75" s="68" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E75" s="61" t="n">
         <v>100000</v>
@@ -9935,7 +9988,7 @@
       <c r="J75" s="62"/>
       <c r="K75" s="62"/>
       <c r="L75" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9944,10 +9997,10 @@
         <v>44528</v>
       </c>
       <c r="C76" s="67" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D76" s="68" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E76" s="61" t="n">
         <v>100000</v>
@@ -9959,7 +10012,7 @@
       <c r="J76" s="62"/>
       <c r="K76" s="62"/>
       <c r="L76" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9968,10 +10021,10 @@
         <v>44555</v>
       </c>
       <c r="C77" s="67" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D77" s="68" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E77" s="61" t="n">
         <v>200000</v>
@@ -9983,7 +10036,7 @@
       <c r="J77" s="62"/>
       <c r="K77" s="62"/>
       <c r="L77" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9992,10 +10045,10 @@
         <v>44680</v>
       </c>
       <c r="C78" s="67" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D78" s="68" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E78" s="61" t="n">
         <v>150000</v>
@@ -10007,7 +10060,7 @@
       <c r="J78" s="62"/>
       <c r="K78" s="62"/>
       <c r="L78" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10016,10 +10069,10 @@
         <v>44507</v>
       </c>
       <c r="C79" s="67" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D79" s="68" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E79" s="61" t="n">
         <v>100000</v>
@@ -10031,7 +10084,7 @@
       <c r="J79" s="62"/>
       <c r="K79" s="62"/>
       <c r="L79" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10040,10 +10093,10 @@
         <v>44507</v>
       </c>
       <c r="C80" s="67" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D80" s="68" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E80" s="61" t="n">
         <v>100000</v>
@@ -10055,7 +10108,7 @@
       <c r="J80" s="62"/>
       <c r="K80" s="62"/>
       <c r="L80" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10064,10 +10117,10 @@
         <v>44577</v>
       </c>
       <c r="C81" s="67" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D81" s="68" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E81" s="61" t="n">
         <v>100000</v>
@@ -10079,7 +10132,7 @@
       <c r="J81" s="62"/>
       <c r="K81" s="62"/>
       <c r="L81" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10088,10 +10141,10 @@
         <v>44630</v>
       </c>
       <c r="C82" s="67" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D82" s="68" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E82" s="61" t="n">
         <v>100000</v>
@@ -10103,7 +10156,7 @@
       <c r="J82" s="62"/>
       <c r="K82" s="62"/>
       <c r="L82" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10112,10 +10165,10 @@
         <v>44620</v>
       </c>
       <c r="C83" s="67" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D83" s="68" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E83" s="61" t="n">
         <v>100000</v>
@@ -10127,7 +10180,7 @@
       <c r="J83" s="62"/>
       <c r="K83" s="62"/>
       <c r="L83" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10136,10 +10189,10 @@
         <v>44681</v>
       </c>
       <c r="C84" s="67" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D84" s="68" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E84" s="61" t="n">
         <v>100000</v>
@@ -10151,7 +10204,7 @@
       <c r="J84" s="62"/>
       <c r="K84" s="62"/>
       <c r="L84" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10160,10 +10213,10 @@
         <v>44507</v>
       </c>
       <c r="C85" s="67" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D85" s="68" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E85" s="61" t="n">
         <v>100000</v>
@@ -10175,7 +10228,7 @@
       <c r="J85" s="62"/>
       <c r="K85" s="62"/>
       <c r="L85" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10184,10 +10237,10 @@
         <v>44507</v>
       </c>
       <c r="C86" s="67" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D86" s="68" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E86" s="61" t="n">
         <v>100000</v>
@@ -10199,7 +10252,7 @@
       <c r="J86" s="62"/>
       <c r="K86" s="62"/>
       <c r="L86" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10208,10 +10261,10 @@
         <v>44596</v>
       </c>
       <c r="C87" s="67" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D87" s="68" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E87" s="61" t="n">
         <v>200000</v>
@@ -10223,7 +10276,7 @@
       <c r="J87" s="62"/>
       <c r="K87" s="62"/>
       <c r="L87" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10232,10 +10285,10 @@
         <v>44506</v>
       </c>
       <c r="C88" s="67" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D88" s="68" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E88" s="61" t="n">
         <v>100000</v>
@@ -10247,7 +10300,7 @@
       <c r="J88" s="62"/>
       <c r="K88" s="62"/>
       <c r="L88" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10256,10 +10309,10 @@
         <v>44533</v>
       </c>
       <c r="C89" s="67" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D89" s="68" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E89" s="61" t="n">
         <v>100000</v>
@@ -10271,7 +10324,7 @@
       <c r="J89" s="62"/>
       <c r="K89" s="62"/>
       <c r="L89" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10280,10 +10333,10 @@
         <v>44598</v>
       </c>
       <c r="C90" s="67" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D90" s="68" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E90" s="61" t="n">
         <v>200000</v>
@@ -10295,7 +10348,7 @@
       <c r="J90" s="62"/>
       <c r="K90" s="62"/>
       <c r="L90" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10304,10 +10357,10 @@
         <v>44598</v>
       </c>
       <c r="C91" s="67" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D91" s="68" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E91" s="61" t="n">
         <v>200000</v>
@@ -10319,7 +10372,7 @@
       <c r="J91" s="62"/>
       <c r="K91" s="62"/>
       <c r="L91" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10328,10 +10381,10 @@
         <v>44507</v>
       </c>
       <c r="C92" s="67" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D92" s="68" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E92" s="61" t="n">
         <v>100000</v>
@@ -10343,7 +10396,7 @@
       <c r="J92" s="62"/>
       <c r="K92" s="62"/>
       <c r="L92" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10352,10 +10405,10 @@
         <v>44507</v>
       </c>
       <c r="C93" s="67" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D93" s="68" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E93" s="61" t="n">
         <v>100000</v>
@@ -10367,7 +10420,7 @@
       <c r="J93" s="62"/>
       <c r="K93" s="62"/>
       <c r="L93" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10376,10 +10429,10 @@
         <v>44565</v>
       </c>
       <c r="C94" s="67" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D94" s="68" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E94" s="61" t="n">
         <v>100000</v>
@@ -10391,7 +10444,7 @@
       <c r="J94" s="62"/>
       <c r="K94" s="62"/>
       <c r="L94" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10400,10 +10453,10 @@
         <v>44604</v>
       </c>
       <c r="C95" s="67" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D95" s="68" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E95" s="61" t="n">
         <v>100000</v>
@@ -10415,7 +10468,7 @@
       <c r="J95" s="62"/>
       <c r="K95" s="62"/>
       <c r="L95" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10424,10 +10477,10 @@
         <v>44633</v>
       </c>
       <c r="C96" s="67" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D96" s="68" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E96" s="61" t="n">
         <v>100000</v>
@@ -10439,7 +10492,7 @@
       <c r="J96" s="62"/>
       <c r="K96" s="62"/>
       <c r="L96" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10448,10 +10501,10 @@
         <v>44697</v>
       </c>
       <c r="C97" s="67" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D97" s="68" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E97" s="61" t="n">
         <v>200000</v>
@@ -10463,7 +10516,7 @@
       <c r="J97" s="62"/>
       <c r="K97" s="62"/>
       <c r="L97" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10472,10 +10525,10 @@
         <v>44518</v>
       </c>
       <c r="C98" s="67" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D98" s="68" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E98" s="61" t="n">
         <v>100000</v>
@@ -10487,7 +10540,7 @@
       <c r="J98" s="62"/>
       <c r="K98" s="62"/>
       <c r="L98" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10496,10 +10549,10 @@
         <v>44518</v>
       </c>
       <c r="C99" s="67" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D99" s="68" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E99" s="61" t="n">
         <v>100000</v>
@@ -10511,7 +10564,7 @@
       <c r="J99" s="62"/>
       <c r="K99" s="62"/>
       <c r="L99" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10520,10 +10573,10 @@
         <v>44620</v>
       </c>
       <c r="C100" s="67" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D100" s="68" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E100" s="61" t="n">
         <v>100000</v>
@@ -10535,7 +10588,7 @@
       <c r="J100" s="62"/>
       <c r="K100" s="62"/>
       <c r="L100" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10544,10 +10597,10 @@
         <v>44512</v>
       </c>
       <c r="C101" s="67" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D101" s="68" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E101" s="61" t="n">
         <v>100000</v>
@@ -10559,7 +10612,7 @@
       <c r="J101" s="62"/>
       <c r="K101" s="62"/>
       <c r="L101" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10568,10 +10621,10 @@
         <v>44506</v>
       </c>
       <c r="C102" s="67" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D102" s="68" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E102" s="61" t="n">
         <v>100000</v>
@@ -10583,7 +10636,7 @@
       <c r="J102" s="62"/>
       <c r="K102" s="62"/>
       <c r="L102" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10592,10 +10645,10 @@
         <v>44555</v>
       </c>
       <c r="C103" s="67" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D103" s="68" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E103" s="61" t="n">
         <v>100000</v>
@@ -10607,7 +10660,7 @@
       <c r="J103" s="62"/>
       <c r="K103" s="62"/>
       <c r="L103" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10616,10 +10669,10 @@
         <v>44218</v>
       </c>
       <c r="C104" s="67" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D104" s="68" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E104" s="61" t="n">
         <v>200000</v>
@@ -10631,7 +10684,7 @@
       <c r="J104" s="62"/>
       <c r="K104" s="62"/>
       <c r="L104" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10640,10 +10693,10 @@
         <v>44507</v>
       </c>
       <c r="C105" s="67" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D105" s="68" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E105" s="61" t="n">
         <v>100000</v>
@@ -10655,7 +10708,7 @@
       <c r="J105" s="62"/>
       <c r="K105" s="62"/>
       <c r="L105" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10663,17 +10716,17 @@
         <v>44559</v>
       </c>
       <c r="C106" s="67" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D106" s="68" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E106" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F106" s="61"/>
       <c r="L106" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10681,17 +10734,17 @@
         <v>44558</v>
       </c>
       <c r="C107" s="67" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D107" s="68" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E107" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F107" s="61"/>
       <c r="L107" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10699,17 +10752,17 @@
         <v>44302</v>
       </c>
       <c r="C108" s="67" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D108" s="68" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E108" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F108" s="61"/>
       <c r="L108" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10717,17 +10770,17 @@
         <v>44695</v>
       </c>
       <c r="C109" s="67" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D109" s="68" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E109" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F109" s="61"/>
       <c r="L109" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10735,17 +10788,17 @@
         <v>44694</v>
       </c>
       <c r="C110" s="67" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D110" s="68" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E110" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F110" s="61"/>
       <c r="L110" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10753,17 +10806,17 @@
         <v>44507</v>
       </c>
       <c r="C111" s="67" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D111" s="68" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E111" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F111" s="61"/>
       <c r="L111" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10771,17 +10824,17 @@
         <v>44573</v>
       </c>
       <c r="C112" s="67" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D112" s="68" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E112" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F112" s="61"/>
       <c r="L112" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10789,17 +10842,17 @@
         <v>44633</v>
       </c>
       <c r="C113" s="67" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D113" s="68" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E113" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F113" s="61"/>
       <c r="L113" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10807,17 +10860,17 @@
         <v>44507</v>
       </c>
       <c r="C114" s="67" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D114" s="68" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E114" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F114" s="61"/>
       <c r="L114" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10825,17 +10878,17 @@
         <v>44554</v>
       </c>
       <c r="C115" s="67" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D115" s="68" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E115" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F115" s="61"/>
       <c r="L115" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10843,17 +10896,17 @@
         <v>44604</v>
       </c>
       <c r="C116" s="67" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D116" s="68" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E116" s="61" t="n">
         <v>200000</v>
       </c>
       <c r="F116" s="61"/>
       <c r="L116" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10861,17 +10914,17 @@
         <v>44563</v>
       </c>
       <c r="C117" s="67" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D117" s="68" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E117" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F117" s="61"/>
       <c r="L117" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10879,17 +10932,17 @@
         <v>44680</v>
       </c>
       <c r="C118" s="67" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D118" s="68" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E118" s="61" t="n">
         <v>150000</v>
       </c>
       <c r="F118" s="61"/>
       <c r="L118" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10897,17 +10950,17 @@
         <v>44684</v>
       </c>
       <c r="C119" s="67" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D119" s="68" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E119" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F119" s="61"/>
       <c r="L119" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10915,17 +10968,17 @@
         <v>44598</v>
       </c>
       <c r="C120" s="67" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D120" s="68" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E120" s="61" t="n">
         <v>200000</v>
       </c>
       <c r="F120" s="61"/>
       <c r="L120" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10933,17 +10986,17 @@
         <v>44527</v>
       </c>
       <c r="C121" s="67" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D121" s="68" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E121" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F121" s="61"/>
       <c r="L121" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10951,17 +11004,17 @@
         <v>44710</v>
       </c>
       <c r="C122" s="67" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D122" s="68" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E122" s="61" t="n">
         <v>200000</v>
       </c>
       <c r="F122" s="61"/>
       <c r="L122" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10969,17 +11022,17 @@
         <v>44507</v>
       </c>
       <c r="C123" s="67" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D123" s="68" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E123" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F123" s="61"/>
       <c r="L123" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10987,17 +11040,17 @@
         <v>44507</v>
       </c>
       <c r="C124" s="67" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D124" s="68" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E124" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F124" s="61"/>
       <c r="L124" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11005,17 +11058,17 @@
         <v>44507</v>
       </c>
       <c r="C125" s="67" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D125" s="68" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E125" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F125" s="61"/>
       <c r="L125" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11023,17 +11076,17 @@
         <v>44630</v>
       </c>
       <c r="C126" s="67" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D126" s="68" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E126" s="61" t="n">
         <v>200000</v>
       </c>
       <c r="F126" s="61"/>
       <c r="L126" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11041,17 +11094,17 @@
         <v>44710</v>
       </c>
       <c r="C127" s="67" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D127" s="68" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E127" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F127" s="61"/>
       <c r="L127" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11059,17 +11112,17 @@
         <v>44518</v>
       </c>
       <c r="C128" s="67" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D128" s="68" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E128" s="61" t="n">
         <v>50000</v>
       </c>
       <c r="F128" s="61"/>
       <c r="L128" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11077,17 +11130,17 @@
         <v>44518</v>
       </c>
       <c r="C129" s="67" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D129" s="68" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E129" s="61" t="n">
         <v>50000</v>
       </c>
       <c r="F129" s="61"/>
       <c r="L129" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11095,17 +11148,17 @@
         <v>44507</v>
       </c>
       <c r="C130" s="67" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D130" s="68" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E130" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F130" s="61"/>
       <c r="L130" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11113,17 +11166,17 @@
         <v>44507</v>
       </c>
       <c r="C131" s="67" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D131" s="68" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E131" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F131" s="61"/>
       <c r="L131" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11131,17 +11184,17 @@
         <v>44564</v>
       </c>
       <c r="C132" s="67" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D132" s="68" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E132" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F132" s="61"/>
       <c r="L132" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11149,17 +11202,17 @@
         <v>44593</v>
       </c>
       <c r="C133" s="67" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D133" s="68" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E133" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F133" s="61"/>
       <c r="L133" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11167,17 +11220,17 @@
         <v>44639</v>
       </c>
       <c r="C134" s="67" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D134" s="68" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E134" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F134" s="61"/>
       <c r="L134" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11185,17 +11238,17 @@
         <v>44598</v>
       </c>
       <c r="C135" s="67" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D135" s="68" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E135" s="61" t="n">
         <v>200000</v>
       </c>
       <c r="F135" s="61"/>
       <c r="L135" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11203,17 +11256,17 @@
         <v>44653</v>
       </c>
       <c r="C136" s="67" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D136" s="68" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E136" s="61" t="n">
         <v>1000000</v>
       </c>
       <c r="F136" s="61"/>
       <c r="L136" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11221,17 +11274,17 @@
         <v>44623</v>
       </c>
       <c r="C137" s="67" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D137" s="68" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E137" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F137" s="61"/>
       <c r="L137" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11239,17 +11292,17 @@
         <v>44695</v>
       </c>
       <c r="C138" s="67" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D138" s="68" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E138" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F138" s="61"/>
       <c r="L138" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11257,17 +11310,17 @@
         <v>44507</v>
       </c>
       <c r="C139" s="67" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D139" s="68" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E139" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F139" s="61"/>
       <c r="L139" s="48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13297,14 +13350,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:I253"/>
+  <dimension ref="B2:G253"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13314,38 +13367,30 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="12" width="7.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="12" width="9.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="12" width="21.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="12" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="12" width="12.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="12" width="33.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="12" width="47.99"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="71" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C2" s="71"/>
       <c r="D2" s="71"/>
       <c r="E2" s="71"/>
       <c r="F2" s="71"/>
       <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-    </row>
-    <row r="3" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="71" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C3" s="71"/>
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="72" t="s">
         <v>3</v>
       </c>
@@ -13353,22 +13398,16 @@
         <v>5</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E6" s="72" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G6" s="72" t="s">
         <v>11</v>
-      </c>
-      <c r="H6" s="72" t="s">
-        <v>323</v>
-      </c>
-      <c r="I6" s="72" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13376,10 +13415,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="72" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E7" s="74" t="n">
         <v>1</v>
@@ -13391,18 +13430,16 @@
         <f aca="false">IF(F7&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="74" t="n">
         <v>2</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E8" s="74" t="n">
         <v>2</v>
@@ -13414,18 +13451,16 @@
         <f aca="false">IF(F8&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H8" s="75"/>
-      <c r="I8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="74" t="n">
         <v>3</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E9" s="74" t="n">
         <v>3</v>
@@ -13437,18 +13472,16 @@
         <f aca="false">IF(F9&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H9" s="75"/>
-      <c r="I9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="74" t="n">
         <v>4</v>
       </c>
       <c r="C10" s="72" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10" s="72" t="s">
         <v>329</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>326</v>
       </c>
       <c r="E10" s="74" t="n">
         <v>6</v>
@@ -13460,20 +13493,16 @@
         <f aca="false">IF(F10&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H10" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="74" t="n">
         <v>5</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E11" s="74" t="n">
         <v>8</v>
@@ -13485,18 +13514,16 @@
         <f aca="false">IF(F11&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H11" s="75"/>
-      <c r="I11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="74" t="n">
         <v>6</v>
       </c>
       <c r="C12" s="72" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E12" s="74" t="n">
         <v>10</v>
@@ -13508,18 +13535,16 @@
         <f aca="false">IF(F12&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H12" s="75"/>
-      <c r="I12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="74" t="n">
         <v>7</v>
       </c>
       <c r="C13" s="72" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E13" s="74" t="n">
         <v>11</v>
@@ -13531,18 +13556,16 @@
         <f aca="false">IF(F13&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H13" s="75"/>
-      <c r="I13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="74" t="n">
         <v>8</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E14" s="74" t="n">
         <v>12</v>
@@ -13554,20 +13577,16 @@
         <f aca="false">IF(F14&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H14" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="74" t="n">
         <v>9</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D15" s="72" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E15" s="74" t="n">
         <v>15</v>
@@ -13579,20 +13598,16 @@
         <f aca="false">IF(F15&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H15" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="74" t="n">
         <v>10</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E16" s="74" t="n">
         <v>16</v>
@@ -13604,18 +13619,16 @@
         <f aca="false">IF(F16&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H16" s="75"/>
-      <c r="I16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="74" t="n">
         <v>11</v>
       </c>
       <c r="C17" s="72" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E17" s="74" t="n">
         <v>17</v>
@@ -13627,18 +13640,16 @@
         <f aca="false">IF(F17&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H17" s="75"/>
-      <c r="I17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="74" t="n">
         <v>12</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E18" s="74" t="n">
         <v>20</v>
@@ -13650,18 +13661,16 @@
         <f aca="false">IF(F18&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H18" s="75"/>
-      <c r="I18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="74" t="n">
         <v>13</v>
       </c>
       <c r="C19" s="72" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E19" s="74" t="n">
         <v>21</v>
@@ -13673,18 +13682,16 @@
         <f aca="false">IF(F19&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H19" s="75"/>
-      <c r="I19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="74" t="n">
         <v>14</v>
       </c>
       <c r="C20" s="72" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D20" s="72" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E20" s="74" t="n">
         <v>24</v>
@@ -13696,18 +13703,16 @@
         <f aca="false">IF(F20&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H20" s="75"/>
-      <c r="I20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="74" t="n">
         <v>15</v>
       </c>
       <c r="C21" s="72" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E21" s="74" t="n">
         <v>26</v>
@@ -13719,18 +13724,16 @@
         <f aca="false">IF(F21&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H21" s="75"/>
-      <c r="I21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="74" t="n">
         <v>16</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D22" s="72" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E22" s="74" t="n">
         <v>1</v>
@@ -13742,18 +13745,16 @@
         <f aca="false">IF(F22&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H22" s="75"/>
-      <c r="I22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="74" t="n">
         <v>17</v>
       </c>
       <c r="C23" s="72" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E23" s="74" t="n">
         <v>2</v>
@@ -13765,20 +13766,16 @@
         <f aca="false">IF(F23&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H23" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="74" t="n">
         <v>18</v>
       </c>
       <c r="C24" s="72" t="s">
+        <v>347</v>
+      </c>
+      <c r="D24" s="72" t="s">
         <v>345</v>
-      </c>
-      <c r="D24" s="72" t="s">
-        <v>343</v>
       </c>
       <c r="E24" s="74" t="n">
         <v>3</v>
@@ -13790,18 +13787,16 @@
         <f aca="false">IF(F24&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H24" s="75"/>
-      <c r="I24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="74" t="n">
         <v>19</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D25" s="72" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E25" s="74" t="n">
         <v>5</v>
@@ -13813,18 +13808,16 @@
         <f aca="false">IF(F25&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H25" s="75"/>
-      <c r="I25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="74" t="n">
         <v>20</v>
       </c>
       <c r="C26" s="72" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D26" s="72" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E26" s="74" t="n">
         <v>6</v>
@@ -13836,20 +13829,16 @@
         <f aca="false">IF(F26&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H26" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="74" t="n">
         <v>21</v>
       </c>
       <c r="C27" s="72" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D27" s="72" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E27" s="74" t="n">
         <v>7</v>
@@ -13861,20 +13850,16 @@
         <f aca="false">IF(F27&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H27" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="74" t="n">
         <v>22</v>
       </c>
       <c r="C28" s="72" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D28" s="72" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E28" s="74" t="n">
         <v>8</v>
@@ -13886,20 +13871,16 @@
         <f aca="false">IF(F28&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H28" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="74" t="n">
         <v>23</v>
       </c>
       <c r="C29" s="72" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D29" s="72" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E29" s="74" t="n">
         <v>9</v>
@@ -13911,20 +13892,16 @@
         <f aca="false">IF(F29&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H29" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="74" t="n">
         <v>24</v>
       </c>
       <c r="C30" s="72" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D30" s="72" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E30" s="74" t="n">
         <v>10</v>
@@ -13936,18 +13913,16 @@
         <f aca="false">IF(F30&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H30" s="75"/>
-      <c r="I30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="74" t="n">
         <v>25</v>
       </c>
       <c r="C31" s="72" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D31" s="72" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E31" s="74" t="n">
         <v>11</v>
@@ -13959,18 +13934,16 @@
         <f aca="false">IF(F31&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H31" s="75"/>
-      <c r="I31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="74" t="n">
         <v>26</v>
       </c>
       <c r="C32" s="72" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D32" s="72" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E32" s="74" t="n">
         <v>12</v>
@@ -13982,18 +13955,16 @@
         <f aca="false">IF(F32&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H32" s="75"/>
-      <c r="I32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="74" t="n">
         <v>27</v>
       </c>
       <c r="C33" s="72" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D33" s="72" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E33" s="74" t="n">
         <v>16</v>
@@ -14005,18 +13976,16 @@
         <f aca="false">IF(F33&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H33" s="75"/>
-      <c r="I33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="74" t="n">
         <v>28</v>
       </c>
       <c r="C34" s="72" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D34" s="72" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E34" s="74" t="n">
         <v>1</v>
@@ -14028,20 +13997,16 @@
         <f aca="false">IF(F34&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H34" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="74" t="n">
         <v>29</v>
       </c>
       <c r="C35" s="72" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D35" s="72" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E35" s="74" t="n">
         <v>3</v>
@@ -14053,18 +14018,16 @@
         <f aca="false">IF(F35&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H35" s="75"/>
-      <c r="I35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="74" t="n">
         <v>30</v>
       </c>
       <c r="C36" s="72" t="s">
+        <v>360</v>
+      </c>
+      <c r="D36" s="72" t="s">
         <v>358</v>
-      </c>
-      <c r="D36" s="72" t="s">
-        <v>356</v>
       </c>
       <c r="E36" s="74" t="n">
         <v>5</v>
@@ -14076,18 +14039,16 @@
         <f aca="false">IF(F36&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H36" s="75"/>
-      <c r="I36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="74" t="n">
         <v>31</v>
       </c>
       <c r="C37" s="72" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D37" s="72" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E37" s="74" t="n">
         <v>6</v>
@@ -14099,20 +14060,16 @@
         <f aca="false">IF(F37&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H37" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="74" t="n">
         <v>32</v>
       </c>
       <c r="C38" s="72" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D38" s="72" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E38" s="74" t="n">
         <v>7</v>
@@ -14124,18 +14081,16 @@
         <f aca="false">IF(F38&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H38" s="75"/>
-      <c r="I38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="74" t="n">
         <v>33</v>
       </c>
       <c r="C39" s="72" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D39" s="72" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E39" s="74" t="n">
         <v>8</v>
@@ -14147,18 +14102,16 @@
         <f aca="false">IF(F39&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H39" s="75"/>
-      <c r="I39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="74" t="n">
         <v>34</v>
       </c>
       <c r="C40" s="72" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D40" s="72" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E40" s="74" t="n">
         <v>9</v>
@@ -14170,18 +14123,16 @@
         <f aca="false">IF(F40&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H40" s="75"/>
-      <c r="I40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="74" t="n">
         <v>35</v>
       </c>
       <c r="C41" s="72" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D41" s="72" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E41" s="74" t="n">
         <v>10</v>
@@ -14193,18 +14144,16 @@
         <f aca="false">IF(F41&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H41" s="75"/>
-      <c r="I41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="74" t="n">
         <v>36</v>
       </c>
       <c r="C42" s="72" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D42" s="72" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E42" s="74" t="n">
         <v>12</v>
@@ -14216,20 +14165,16 @@
         <f aca="false">IF(F42&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H42" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="74" t="n">
         <v>37</v>
       </c>
       <c r="C43" s="72" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D43" s="72" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E43" s="74" t="n">
         <v>15</v>
@@ -14241,18 +14186,16 @@
         <f aca="false">IF(F43&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H43" s="75"/>
-      <c r="I43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="74" t="n">
         <v>38</v>
       </c>
       <c r="C44" s="72" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D44" s="72" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E44" s="74" t="n">
         <v>16</v>
@@ -14264,18 +14207,16 @@
         <f aca="false">IF(F44&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H44" s="75"/>
-      <c r="I44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="74" t="n">
         <v>39</v>
       </c>
       <c r="C45" s="72" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D45" s="72" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E45" s="74" t="n">
         <v>17</v>
@@ -14287,18 +14228,16 @@
         <f aca="false">IF(F45&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H45" s="75"/>
-      <c r="I45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="74" t="n">
         <v>40</v>
       </c>
       <c r="C46" s="72" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D46" s="72" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E46" s="74" t="n">
         <v>18</v>
@@ -14310,18 +14249,16 @@
         <f aca="false">IF(F46&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H46" s="75"/>
-      <c r="I46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="74" t="n">
         <v>41</v>
       </c>
       <c r="C47" s="72" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D47" s="72" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E47" s="74" t="n">
         <v>1</v>
@@ -14333,20 +14270,16 @@
         <f aca="false">IF(F47&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H47" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="74" t="n">
         <v>42</v>
       </c>
       <c r="C48" s="72" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D48" s="72" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E48" s="74" t="n">
         <v>2</v>
@@ -14358,20 +14291,16 @@
         <f aca="false">IF(F48&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H48" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="74" t="n">
         <v>43</v>
       </c>
       <c r="C49" s="72" t="s">
+        <v>374</v>
+      </c>
+      <c r="D49" s="72" t="s">
         <v>372</v>
-      </c>
-      <c r="D49" s="72" t="s">
-        <v>370</v>
       </c>
       <c r="E49" s="74" t="n">
         <v>3</v>
@@ -14383,20 +14312,16 @@
         <f aca="false">IF(F49&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H49" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="74" t="n">
         <v>44</v>
       </c>
       <c r="C50" s="72" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D50" s="72" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E50" s="74" t="n">
         <v>5</v>
@@ -14408,20 +14333,16 @@
         <f aca="false">IF(F50&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H50" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="74" t="n">
         <v>45</v>
       </c>
       <c r="C51" s="72" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D51" s="72" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E51" s="74" t="n">
         <v>7</v>
@@ -14433,20 +14354,16 @@
         <f aca="false">IF(F51&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H51" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="74" t="n">
         <v>46</v>
       </c>
       <c r="C52" s="72" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D52" s="72" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E52" s="74" t="n">
         <v>8</v>
@@ -14458,18 +14375,16 @@
         <f aca="false">IF(F52&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H52" s="75"/>
-      <c r="I52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="74" t="n">
         <v>47</v>
       </c>
       <c r="C53" s="72" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D53" s="72" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E53" s="74" t="n">
         <v>9</v>
@@ -14481,18 +14396,16 @@
         <f aca="false">IF(F53&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H53" s="75"/>
-      <c r="I53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="74" t="n">
         <v>48</v>
       </c>
       <c r="C54" s="72" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D54" s="72" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E54" s="74" t="n">
         <v>10</v>
@@ -14504,20 +14417,16 @@
         <f aca="false">IF(F54&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H54" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I54" s="10"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="74" t="n">
         <v>49</v>
       </c>
       <c r="C55" s="72" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D55" s="72" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E55" s="74" t="n">
         <v>11</v>
@@ -14529,20 +14438,16 @@
         <f aca="false">IF(F55&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H55" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I55" s="10"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="74" t="n">
         <v>50</v>
       </c>
       <c r="C56" s="72" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D56" s="72" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E56" s="74" t="n">
         <v>12</v>
@@ -14554,20 +14459,16 @@
         <f aca="false">IF(F56&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H56" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="74" t="n">
         <v>51</v>
       </c>
       <c r="C57" s="72" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D57" s="72" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E57" s="74" t="n">
         <v>15</v>
@@ -14579,18 +14480,16 @@
         <f aca="false">IF(F57&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H57" s="75"/>
-      <c r="I57" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="74" t="n">
         <v>52</v>
       </c>
       <c r="C58" s="72" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D58" s="72" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E58" s="74" t="n">
         <v>16</v>
@@ -14602,18 +14501,16 @@
         <f aca="false">IF(F58&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H58" s="75"/>
-      <c r="I58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="74" t="n">
         <v>53</v>
       </c>
       <c r="C59" s="72" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D59" s="72" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E59" s="74" t="n">
         <v>17</v>
@@ -14625,18 +14522,16 @@
         <f aca="false">IF(F59&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H59" s="75"/>
-      <c r="I59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="74" t="n">
         <v>54</v>
       </c>
       <c r="C60" s="72" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D60" s="72" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E60" s="74" t="n">
         <v>12</v>
@@ -14648,18 +14543,16 @@
         <f aca="false">IF(F60&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H60" s="75"/>
-      <c r="I60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="74" t="n">
         <v>55</v>
       </c>
       <c r="C61" s="72" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D61" s="72" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E61" s="74" t="n">
         <v>15</v>
@@ -14671,20 +14564,16 @@
         <f aca="false">IF(F61&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H61" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="74" t="n">
         <v>56</v>
       </c>
       <c r="C62" s="72" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D62" s="72" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E62" s="74" t="n">
         <v>1</v>
@@ -14696,18 +14585,16 @@
         <f aca="false">IF(F62&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H62" s="75"/>
-      <c r="I62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="74" t="n">
         <v>57</v>
       </c>
       <c r="C63" s="72" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D63" s="72" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E63" s="74" t="n">
         <v>2</v>
@@ -14719,18 +14606,16 @@
         <f aca="false">IF(F63&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H63" s="75"/>
-      <c r="I63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="74" t="n">
         <v>58</v>
       </c>
       <c r="C64" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="D64" s="72" t="s">
         <v>389</v>
-      </c>
-      <c r="D64" s="72" t="s">
-        <v>387</v>
       </c>
       <c r="E64" s="74" t="n">
         <v>26</v>
@@ -14742,20 +14627,16 @@
         <f aca="false">IF(F64&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H64" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I64" s="10"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="74" t="n">
         <v>59</v>
       </c>
       <c r="C65" s="72" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D65" s="72" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E65" s="74" t="n">
         <v>1</v>
@@ -14767,20 +14648,16 @@
         <f aca="false">IF(F65&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H65" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I65" s="10"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="74" t="n">
         <v>60</v>
       </c>
       <c r="C66" s="72" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D66" s="72" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E66" s="74" t="n">
         <v>2</v>
@@ -14792,20 +14669,16 @@
         <f aca="false">IF(F66&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H66" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I66" s="10"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="74" t="n">
         <v>61</v>
       </c>
       <c r="C67" s="72" t="s">
+        <v>395</v>
+      </c>
+      <c r="D67" s="72" t="s">
         <v>393</v>
-      </c>
-      <c r="D67" s="72" t="s">
-        <v>391</v>
       </c>
       <c r="E67" s="74" t="n">
         <v>5</v>
@@ -14817,20 +14690,16 @@
         <f aca="false">IF(F67&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H67" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I67" s="10"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="74" t="n">
         <v>62</v>
       </c>
       <c r="C68" s="72" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D68" s="72" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E68" s="74" t="n">
         <v>6</v>
@@ -14842,20 +14711,16 @@
         <f aca="false">IF(F68&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H68" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I68" s="10"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="74" t="n">
         <v>63</v>
       </c>
       <c r="C69" s="72" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D69" s="72" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E69" s="74" t="n">
         <v>7</v>
@@ -14867,23 +14732,19 @@
         <f aca="false">IF(F69&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H69" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I69" s="10"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="74" t="n">
         <v>64</v>
       </c>
       <c r="C70" s="72" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D70" s="72" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E70" s="72" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F70" s="73" t="n">
         <v>600000</v>
@@ -14892,20 +14753,16 @@
         <f aca="false">IF(F70&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H70" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I70" s="10"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="74" t="n">
         <v>65</v>
       </c>
       <c r="C71" s="72" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D71" s="72" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E71" s="74" t="n">
         <v>10</v>
@@ -14916,10 +14773,6 @@
       <c r="G71" s="10" t="str">
         <f aca="false">IF(F71&gt;=1000000,"LUNAS","")</f>
         <v/>
-      </c>
-      <c r="H71" s="75"/>
-      <c r="I71" s="10" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14927,10 +14780,10 @@
         <v>66</v>
       </c>
       <c r="C72" s="72" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D72" s="72" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E72" s="74" t="n">
         <v>11</v>
@@ -14942,20 +14795,16 @@
         <f aca="false">IF(F72&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H72" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I72" s="10"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="74" t="n">
         <v>67</v>
       </c>
       <c r="C73" s="72" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D73" s="72" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E73" s="74" t="n">
         <v>12</v>
@@ -14967,18 +14816,16 @@
         <f aca="false">IF(F73&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H73" s="75"/>
-      <c r="I73" s="10"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="74" t="n">
         <v>68</v>
       </c>
       <c r="C74" s="72" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D74" s="72" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E74" s="74" t="n">
         <v>15</v>
@@ -14990,18 +14837,16 @@
         <f aca="false">IF(F74&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H74" s="75"/>
-      <c r="I74" s="10"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="74" t="n">
         <v>69</v>
       </c>
       <c r="C75" s="72" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D75" s="72" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E75" s="74" t="n">
         <v>16</v>
@@ -15013,18 +14858,16 @@
         <f aca="false">IF(F75&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H75" s="75"/>
-      <c r="I75" s="10"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="74" t="n">
         <v>70</v>
       </c>
       <c r="C76" s="72" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D76" s="72" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E76" s="74" t="n">
         <v>17</v>
@@ -15036,18 +14879,16 @@
         <f aca="false">IF(F76&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H76" s="75"/>
-      <c r="I76" s="10"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="74" t="n">
         <v>71</v>
       </c>
       <c r="C77" s="72" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D77" s="72" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E77" s="74" t="n">
         <v>18</v>
@@ -15059,21 +14900,19 @@
         <f aca="false">IF(F77&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H77" s="75"/>
-      <c r="I77" s="10"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="74" t="n">
         <v>72</v>
       </c>
       <c r="C78" s="72" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D78" s="72" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E78" s="72" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F78" s="73" t="n">
         <v>0</v>
@@ -15082,18 +14921,16 @@
         <f aca="false">IF(F78&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H78" s="75"/>
-      <c r="I78" s="10"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="74" t="n">
         <v>73</v>
       </c>
       <c r="C79" s="72" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D79" s="72" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E79" s="74" t="n">
         <v>22</v>
@@ -15105,18 +14942,16 @@
         <f aca="false">IF(F79&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H79" s="75"/>
-      <c r="I79" s="10"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="74" t="n">
         <v>74</v>
       </c>
       <c r="C80" s="72" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D80" s="72" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E80" s="74" t="n">
         <v>23</v>
@@ -15128,18 +14963,16 @@
         <f aca="false">IF(F80&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H80" s="75"/>
-      <c r="I80" s="10"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="74" t="n">
         <v>75</v>
       </c>
       <c r="C81" s="72" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D81" s="72" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E81" s="74" t="n">
         <v>24</v>
@@ -15151,10 +14984,6 @@
         <f aca="false">IF(F81&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H81" s="75"/>
-      <c r="I81" s="10" t="s">
-        <v>411</v>
-      </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="74" t="n">
@@ -15164,7 +14993,7 @@
         <v>412</v>
       </c>
       <c r="D82" s="72" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E82" s="74" t="n">
         <v>25</v>
@@ -15176,8 +15005,6 @@
         <f aca="false">IF(F82&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H82" s="75"/>
-      <c r="I82" s="10"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="74" t="n">
@@ -15199,8 +15026,6 @@
         <f aca="false">IF(F83&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H83" s="75"/>
-      <c r="I83" s="10"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="74" t="n">
@@ -15222,8 +15047,6 @@
         <f aca="false">IF(F84&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H84" s="75"/>
-      <c r="I84" s="10"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="74" t="n">
@@ -15245,8 +15068,6 @@
         <f aca="false">IF(F85&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H85" s="75"/>
-      <c r="I85" s="10"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="74" t="n">
@@ -15268,8 +15089,6 @@
         <f aca="false">IF(F86&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H86" s="75"/>
-      <c r="I86" s="10"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="74" t="n">
@@ -15291,8 +15110,6 @@
         <f aca="false">IF(F87&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H87" s="75"/>
-      <c r="I87" s="10"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="74" t="n">
@@ -15314,8 +15131,6 @@
         <f aca="false">IF(F88&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H88" s="75"/>
-      <c r="I88" s="10"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="74" t="n">
@@ -15337,17 +15152,13 @@
         <f aca="false">IF(F89&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H89" s="75"/>
-      <c r="I89" s="10" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="74" t="n">
         <v>84</v>
       </c>
       <c r="C90" s="72" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D90" s="72" t="s">
         <v>414</v>
@@ -15362,15 +15173,13 @@
         <f aca="false">IF(F90&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H90" s="75"/>
-      <c r="I90" s="10"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="74" t="n">
         <v>85</v>
       </c>
       <c r="C91" s="72" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D91" s="72" t="s">
         <v>414</v>
@@ -15384,10 +15193,6 @@
       <c r="G91" s="10" t="str">
         <f aca="false">IF(F91&gt;=1000000,"LUNAS","")</f>
         <v/>
-      </c>
-      <c r="H91" s="75"/>
-      <c r="I91" s="10" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15395,7 +15200,7 @@
         <v>86</v>
       </c>
       <c r="C92" s="72" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D92" s="72" t="s">
         <v>414</v>
@@ -15410,15 +15215,13 @@
         <f aca="false">IF(F92&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H92" s="75"/>
-      <c r="I92" s="10"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="74" t="n">
         <v>87</v>
       </c>
       <c r="C93" s="72" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D93" s="72" t="s">
         <v>414</v>
@@ -15433,15 +15236,13 @@
         <f aca="false">IF(F93&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H93" s="75"/>
-      <c r="I93" s="10"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="74" t="n">
         <v>88</v>
       </c>
       <c r="C94" s="72" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D94" s="72" t="s">
         <v>414</v>
@@ -15456,15 +15257,13 @@
         <f aca="false">IF(F94&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H94" s="75"/>
-      <c r="I94" s="10"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="74" t="n">
         <v>89</v>
       </c>
       <c r="C95" s="72" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D95" s="72" t="s">
         <v>414</v>
@@ -15479,15 +15278,13 @@
         <f aca="false">IF(F95&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H95" s="75"/>
-      <c r="I95" s="10"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="74" t="n">
         <v>90</v>
       </c>
       <c r="C96" s="72" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D96" s="72" t="s">
         <v>414</v>
@@ -15502,15 +15299,13 @@
         <f aca="false">IF(F96&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H96" s="75"/>
-      <c r="I96" s="10"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="74" t="n">
         <v>91</v>
       </c>
       <c r="C97" s="72" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D97" s="72" t="s">
         <v>414</v>
@@ -15525,15 +15320,13 @@
         <f aca="false">IF(F97&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H97" s="75"/>
-      <c r="I97" s="10"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="74" t="n">
         <v>92</v>
       </c>
       <c r="C98" s="72" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D98" s="72" t="s">
         <v>414</v>
@@ -15548,15 +15341,13 @@
         <f aca="false">IF(F98&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H98" s="75"/>
-      <c r="I98" s="10"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="74" t="n">
         <v>93</v>
       </c>
       <c r="C99" s="72" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D99" s="72" t="s">
         <v>414</v>
@@ -15571,17 +15362,13 @@
         <f aca="false">IF(F99&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H99" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I99" s="10"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="74" t="n">
         <v>94</v>
       </c>
       <c r="C100" s="72" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D100" s="72" t="s">
         <v>414</v>
@@ -15590,21 +15377,19 @@
         <v>24</v>
       </c>
       <c r="F100" s="73" t="n">
-        <v>700000</v>
+        <v>800000</v>
       </c>
       <c r="G100" s="10" t="str">
         <f aca="false">IF(F100&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H100" s="75"/>
-      <c r="I100" s="10"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="74" t="n">
         <v>95</v>
       </c>
       <c r="C101" s="72" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D101" s="72" t="s">
         <v>414</v>
@@ -15618,10 +15403,6 @@
       <c r="G101" s="10" t="str">
         <f aca="false">IF(F101&gt;=1000000,"LUNAS","")</f>
         <v/>
-      </c>
-      <c r="H101" s="75"/>
-      <c r="I101" s="10" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15629,10 +15410,10 @@
         <v>96</v>
       </c>
       <c r="C102" s="72" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D102" s="72" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E102" s="74" t="n">
         <v>2</v>
@@ -15644,18 +15425,16 @@
         <f aca="false">IF(F102&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H102" s="75"/>
-      <c r="I102" s="10"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="74" t="n">
         <v>97</v>
       </c>
       <c r="C103" s="72" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D103" s="72" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E103" s="74" t="n">
         <v>26</v>
@@ -15667,18 +15446,16 @@
         <f aca="false">IF(F103&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H103" s="75"/>
-      <c r="I103" s="10"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="74" t="n">
         <v>98</v>
       </c>
       <c r="C104" s="72" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D104" s="72" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E104" s="74" t="n">
         <v>27</v>
@@ -15690,18 +15467,16 @@
         <f aca="false">IF(F104&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H104" s="75"/>
-      <c r="I104" s="10"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="74" t="n">
         <v>99</v>
       </c>
       <c r="C105" s="72" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D105" s="72" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E105" s="74" t="n">
         <v>9</v>
@@ -15713,18 +15488,16 @@
         <f aca="false">IF(F105&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H105" s="75"/>
-      <c r="I105" s="10"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="74" t="n">
         <v>100</v>
       </c>
       <c r="C106" s="72" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D106" s="72" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E106" s="74" t="n">
         <v>1</v>
@@ -15736,20 +15509,16 @@
         <f aca="false">IF(F106&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H106" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I106" s="10"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="74" t="n">
         <v>101</v>
       </c>
       <c r="C107" s="72" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D107" s="72" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E107" s="74" t="n">
         <v>2</v>
@@ -15761,18 +15530,16 @@
         <f aca="false">IF(F107&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H107" s="75"/>
-      <c r="I107" s="10"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="74" t="n">
         <v>102</v>
       </c>
       <c r="C108" s="72" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D108" s="72" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E108" s="74" t="n">
         <v>3</v>
@@ -15784,18 +15551,16 @@
         <f aca="false">IF(F108&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H108" s="75"/>
-      <c r="I108" s="10"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="74" t="n">
         <v>103</v>
       </c>
       <c r="C109" s="72" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D109" s="72" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E109" s="74" t="n">
         <v>5</v>
@@ -15807,18 +15572,16 @@
         <f aca="false">IF(F109&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H109" s="75"/>
-      <c r="I109" s="10"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="74" t="n">
         <v>104</v>
       </c>
       <c r="C110" s="72" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D110" s="72" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E110" s="74" t="n">
         <v>6</v>
@@ -15830,18 +15593,16 @@
         <f aca="false">IF(F110&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H110" s="75"/>
-      <c r="I110" s="10"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="74" t="n">
         <v>105</v>
       </c>
       <c r="C111" s="72" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D111" s="72" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E111" s="74" t="n">
         <v>7</v>
@@ -15853,20 +15614,16 @@
         <f aca="false">IF(F111&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H111" s="75" t="s">
-        <v>449</v>
-      </c>
-      <c r="I111" s="10"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="74" t="n">
         <v>106</v>
       </c>
       <c r="C112" s="72" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D112" s="72" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E112" s="74" t="n">
         <v>8</v>
@@ -15878,18 +15635,16 @@
         <f aca="false">IF(F112&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H112" s="75"/>
-      <c r="I112" s="10"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="74" t="n">
         <v>107</v>
       </c>
       <c r="C113" s="72" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D113" s="72" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E113" s="74" t="n">
         <v>9</v>
@@ -15901,18 +15656,16 @@
         <f aca="false">IF(F113&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H113" s="75"/>
-      <c r="I113" s="10"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="74" t="n">
         <v>108</v>
       </c>
       <c r="C114" s="72" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D114" s="72" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E114" s="74" t="n">
         <v>10</v>
@@ -15924,18 +15677,16 @@
         <f aca="false">IF(F114&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H114" s="75"/>
-      <c r="I114" s="10"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="74" t="n">
         <v>109</v>
       </c>
       <c r="C115" s="72" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D115" s="72" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E115" s="74" t="n">
         <v>11</v>
@@ -15946,10 +15697,6 @@
       <c r="G115" s="10" t="str">
         <f aca="false">IF(F115&gt;=1000000,"LUNAS","")</f>
         <v/>
-      </c>
-      <c r="H115" s="1"/>
-      <c r="I115" s="75" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15957,10 +15704,10 @@
         <v>110</v>
       </c>
       <c r="C116" s="72" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D116" s="72" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E116" s="74" t="n">
         <v>15</v>
@@ -15972,18 +15719,16 @@
         <f aca="false">IF(F116&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H116" s="75"/>
-      <c r="I116" s="10"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="74" t="n">
         <v>111</v>
       </c>
       <c r="C117" s="72" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D117" s="72" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E117" s="74" t="n">
         <v>17</v>
@@ -15995,18 +15740,16 @@
         <f aca="false">IF(F117&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H117" s="75"/>
-      <c r="I117" s="10"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="74" t="n">
         <v>112</v>
       </c>
       <c r="C118" s="72" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D118" s="72" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E118" s="74" t="n">
         <v>18</v>
@@ -16018,18 +15761,16 @@
         <f aca="false">IF(F118&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H118" s="75"/>
-      <c r="I118" s="10"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="74" t="n">
         <v>113</v>
       </c>
       <c r="C119" s="72" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D119" s="72" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E119" s="74" t="n">
         <v>19</v>
@@ -16041,20 +15782,16 @@
         <f aca="false">IF(F119&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H119" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I119" s="10"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="74" t="n">
         <v>114</v>
       </c>
       <c r="C120" s="72" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D120" s="72" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E120" s="74" t="n">
         <v>20</v>
@@ -16066,20 +15803,16 @@
         <f aca="false">IF(F120&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H120" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I120" s="10"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="74" t="n">
         <v>115</v>
       </c>
       <c r="C121" s="72" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D121" s="72" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E121" s="74" t="n">
         <v>22</v>
@@ -16091,18 +15824,16 @@
         <f aca="false">IF(F121&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H121" s="75"/>
-      <c r="I121" s="10"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="74" t="n">
         <v>116</v>
       </c>
       <c r="C122" s="72" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D122" s="72" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E122" s="74" t="n">
         <v>23</v>
@@ -16114,18 +15845,16 @@
         <f aca="false">IF(F122&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H122" s="75"/>
-      <c r="I122" s="10"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="74" t="n">
         <v>117</v>
       </c>
       <c r="C123" s="72" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D123" s="72" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E123" s="74" t="n">
         <v>25</v>
@@ -16137,20 +15866,16 @@
         <f aca="false">IF(F123&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H123" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I123" s="10"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="74" t="n">
         <v>118</v>
       </c>
       <c r="C124" s="72" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D124" s="72" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E124" s="74" t="n">
         <v>1</v>
@@ -16162,18 +15887,16 @@
         <f aca="false">IF(F124&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H124" s="75"/>
-      <c r="I124" s="10"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="74" t="n">
         <v>119</v>
       </c>
       <c r="C125" s="72" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D125" s="72" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E125" s="74" t="n">
         <v>2</v>
@@ -16185,18 +15908,16 @@
         <f aca="false">IF(F125&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H125" s="75"/>
-      <c r="I125" s="10"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="74" t="n">
         <v>120</v>
       </c>
       <c r="C126" s="72" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D126" s="72" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E126" s="74" t="n">
         <v>3</v>
@@ -16208,18 +15929,16 @@
         <f aca="false">IF(F126&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H126" s="75"/>
-      <c r="I126" s="10"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="74" t="n">
         <v>121</v>
       </c>
       <c r="C127" s="72" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D127" s="72" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E127" s="74" t="n">
         <v>5</v>
@@ -16231,20 +15950,16 @@
         <f aca="false">IF(F127&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H127" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I127" s="10"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="74" t="n">
         <v>122</v>
       </c>
       <c r="C128" s="72" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D128" s="72" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E128" s="74" t="n">
         <v>8</v>
@@ -16256,18 +15971,16 @@
         <f aca="false">IF(F128&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H128" s="75"/>
-      <c r="I128" s="10"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="74" t="n">
         <v>123</v>
       </c>
       <c r="C129" s="72" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D129" s="72" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E129" s="74" t="n">
         <v>9</v>
@@ -16279,20 +15992,16 @@
         <f aca="false">IF(F129&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H129" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I129" s="10"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="74" t="n">
         <v>124</v>
       </c>
       <c r="C130" s="72" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D130" s="72" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E130" s="74" t="n">
         <v>10</v>
@@ -16304,18 +16013,16 @@
         <f aca="false">IF(F130&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H130" s="75"/>
-      <c r="I130" s="10"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="74" t="n">
         <v>125</v>
       </c>
       <c r="C131" s="72" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D131" s="72" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E131" s="74" t="n">
         <v>11</v>
@@ -16327,18 +16034,16 @@
         <f aca="false">IF(F131&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H131" s="75"/>
-      <c r="I131" s="10"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="74" t="n">
         <v>126</v>
       </c>
       <c r="C132" s="72" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D132" s="72" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E132" s="74" t="n">
         <v>12</v>
@@ -16350,18 +16055,16 @@
         <f aca="false">IF(F132&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H132" s="75"/>
-      <c r="I132" s="10"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="74" t="n">
         <v>127</v>
       </c>
       <c r="C133" s="72" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D133" s="72" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E133" s="74" t="n">
         <v>15</v>
@@ -16373,18 +16076,16 @@
         <f aca="false">IF(F133&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H133" s="75"/>
-      <c r="I133" s="10"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="74" t="n">
         <v>128</v>
       </c>
       <c r="C134" s="72" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D134" s="72" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E134" s="74" t="n">
         <v>16</v>
@@ -16396,18 +16097,16 @@
         <f aca="false">IF(F134&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H134" s="75"/>
-      <c r="I134" s="10"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="74" t="n">
         <v>129</v>
       </c>
       <c r="C135" s="72" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D135" s="72" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E135" s="74" t="n">
         <v>17</v>
@@ -16419,18 +16118,16 @@
         <f aca="false">IF(F135&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H135" s="75"/>
-      <c r="I135" s="10"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="74" t="n">
         <v>130</v>
       </c>
       <c r="C136" s="72" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D136" s="72" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E136" s="74" t="n">
         <v>18</v>
@@ -16442,18 +16139,16 @@
         <f aca="false">IF(F136&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H136" s="75"/>
-      <c r="I136" s="10"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="74" t="n">
         <v>131</v>
       </c>
       <c r="C137" s="72" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D137" s="72" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E137" s="74" t="n">
         <v>2</v>
@@ -16465,18 +16160,16 @@
         <f aca="false">IF(F137&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H137" s="75"/>
-      <c r="I137" s="10"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="74" t="n">
         <v>132</v>
       </c>
       <c r="C138" s="72" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D138" s="72" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E138" s="74" t="n">
         <v>23</v>
@@ -16488,18 +16181,16 @@
         <f aca="false">IF(F138&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H138" s="75"/>
-      <c r="I138" s="10"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="74" t="n">
         <v>133</v>
       </c>
       <c r="C139" s="72" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D139" s="72" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E139" s="74" t="n">
         <v>24</v>
@@ -16511,18 +16202,16 @@
         <f aca="false">IF(F139&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H139" s="75"/>
-      <c r="I139" s="10"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="74" t="n">
         <v>134</v>
       </c>
       <c r="C140" s="72" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D140" s="72" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E140" s="74" t="n">
         <v>25</v>
@@ -16534,18 +16223,16 @@
         <f aca="false">IF(F140&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H140" s="75"/>
-      <c r="I140" s="10"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="74" t="n">
         <v>135</v>
       </c>
       <c r="C141" s="72" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D141" s="72" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E141" s="74" t="n">
         <v>26</v>
@@ -16557,18 +16244,16 @@
         <f aca="false">IF(F141&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H141" s="75"/>
-      <c r="I141" s="10"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="74" t="n">
         <v>136</v>
       </c>
       <c r="C142" s="72" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D142" s="72" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E142" s="74" t="n">
         <v>2</v>
@@ -16580,18 +16265,16 @@
         <f aca="false">IF(F142&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H142" s="75"/>
-      <c r="I142" s="10"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="74" t="n">
         <v>137</v>
       </c>
       <c r="C143" s="72" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D143" s="72" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E143" s="74" t="n">
         <v>3</v>
@@ -16603,18 +16286,16 @@
         <f aca="false">IF(F143&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H143" s="75"/>
-      <c r="I143" s="10"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="74" t="n">
         <v>138</v>
       </c>
       <c r="C144" s="72" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D144" s="72" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E144" s="74" t="n">
         <v>5</v>
@@ -16626,18 +16307,16 @@
         <f aca="false">IF(F144&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H144" s="75"/>
-      <c r="I144" s="10"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="74" t="n">
         <v>139</v>
       </c>
       <c r="C145" s="72" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D145" s="72" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E145" s="74" t="n">
         <v>7</v>
@@ -16649,18 +16328,16 @@
         <f aca="false">IF(F145&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H145" s="75"/>
-      <c r="I145" s="10"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="74" t="n">
         <v>140</v>
       </c>
       <c r="C146" s="72" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D146" s="72" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E146" s="74" t="n">
         <v>8</v>
@@ -16672,18 +16349,16 @@
         <f aca="false">IF(F146&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H146" s="75"/>
-      <c r="I146" s="10"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="74" t="n">
         <v>141</v>
       </c>
       <c r="C147" s="72" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D147" s="72" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E147" s="74" t="n">
         <v>12</v>
@@ -16695,18 +16370,16 @@
         <f aca="false">IF(F147&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H147" s="75"/>
-      <c r="I147" s="10"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="74" t="n">
         <v>142</v>
       </c>
       <c r="C148" s="72" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D148" s="72" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E148" s="74" t="n">
         <v>17</v>
@@ -16718,18 +16391,16 @@
         <f aca="false">IF(F148&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H148" s="75"/>
-      <c r="I148" s="10"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="74" t="n">
         <v>143</v>
       </c>
       <c r="C149" s="72" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D149" s="72" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E149" s="74" t="n">
         <v>18</v>
@@ -16741,18 +16412,16 @@
         <f aca="false">IF(F149&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H149" s="75"/>
-      <c r="I149" s="10"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="74" t="n">
         <v>144</v>
       </c>
       <c r="C150" s="72" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D150" s="72" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E150" s="74" t="n">
         <v>23</v>
@@ -16764,18 +16433,16 @@
         <f aca="false">IF(F150&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H150" s="75"/>
-      <c r="I150" s="10"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="74" t="n">
         <v>145</v>
       </c>
       <c r="C151" s="72" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D151" s="72" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E151" s="74" t="n">
         <v>24</v>
@@ -16787,20 +16454,16 @@
         <f aca="false">IF(F151&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H151" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I151" s="10"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="74" t="n">
         <v>146</v>
       </c>
       <c r="C152" s="72" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D152" s="72" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E152" s="74" t="n">
         <v>27</v>
@@ -16812,18 +16475,16 @@
         <f aca="false">IF(F152&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H152" s="75"/>
-      <c r="I152" s="10"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="74" t="n">
         <v>147</v>
       </c>
       <c r="C153" s="72" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D153" s="72" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E153" s="74" t="n">
         <v>1</v>
@@ -16835,18 +16496,16 @@
         <f aca="false">IF(F153&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H153" s="75"/>
-      <c r="I153" s="10"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="74" t="n">
         <v>148</v>
       </c>
       <c r="C154" s="72" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D154" s="72" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E154" s="74" t="n">
         <v>2</v>
@@ -16858,18 +16517,16 @@
         <f aca="false">IF(F154&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H154" s="75"/>
-      <c r="I154" s="10"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="74" t="n">
         <v>149</v>
       </c>
       <c r="C155" s="72" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D155" s="72" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E155" s="74" t="n">
         <v>3</v>
@@ -16881,18 +16538,16 @@
         <f aca="false">IF(F155&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H155" s="75"/>
-      <c r="I155" s="10"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="74" t="n">
         <v>150</v>
       </c>
       <c r="C156" s="72" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D156" s="72" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E156" s="74" t="n">
         <v>5</v>
@@ -16904,18 +16559,16 @@
         <f aca="false">IF(F156&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H156" s="75"/>
-      <c r="I156" s="10"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="74" t="n">
         <v>151</v>
       </c>
       <c r="C157" s="72" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D157" s="72" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E157" s="74" t="n">
         <v>6</v>
@@ -16927,18 +16580,16 @@
         <f aca="false">IF(F157&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H157" s="75"/>
-      <c r="I157" s="10"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="74" t="n">
         <v>152</v>
       </c>
       <c r="C158" s="72" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D158" s="72" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E158" s="74" t="n">
         <v>7</v>
@@ -16950,18 +16601,16 @@
         <f aca="false">IF(F158&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H158" s="75"/>
-      <c r="I158" s="10"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="74" t="n">
         <v>153</v>
       </c>
       <c r="C159" s="72" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D159" s="72" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E159" s="74" t="n">
         <v>8</v>
@@ -16973,18 +16622,16 @@
         <f aca="false">IF(F159&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H159" s="75"/>
-      <c r="I159" s="10"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="74" t="n">
         <v>154</v>
       </c>
       <c r="C160" s="72" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D160" s="72" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E160" s="74" t="n">
         <v>9</v>
@@ -16996,18 +16643,16 @@
         <f aca="false">IF(F160&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H160" s="75"/>
-      <c r="I160" s="10"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="74" t="n">
         <v>155</v>
       </c>
       <c r="C161" s="72" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D161" s="72" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E161" s="74" t="n">
         <v>10</v>
@@ -17019,18 +16664,16 @@
         <f aca="false">IF(F161&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H161" s="75"/>
-      <c r="I161" s="10"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="74" t="n">
         <v>156</v>
       </c>
       <c r="C162" s="72" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D162" s="72" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E162" s="74" t="n">
         <v>11</v>
@@ -17042,18 +16685,16 @@
         <f aca="false">IF(F162&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H162" s="75"/>
-      <c r="I162" s="10"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="74" t="n">
         <v>157</v>
       </c>
       <c r="C163" s="72" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D163" s="72" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E163" s="74" t="n">
         <v>12</v>
@@ -17064,10 +16705,6 @@
       <c r="G163" s="10" t="str">
         <f aca="false">IF(F163&gt;=1000000,"LUNAS","")</f>
         <v/>
-      </c>
-      <c r="H163" s="1"/>
-      <c r="I163" s="75" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17075,10 +16712,10 @@
         <v>158</v>
       </c>
       <c r="C164" s="72" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D164" s="72" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E164" s="74" t="n">
         <v>15</v>
@@ -17090,18 +16727,16 @@
         <f aca="false">IF(F164&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H164" s="75"/>
-      <c r="I164" s="10"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="74" t="n">
         <v>159</v>
       </c>
       <c r="C165" s="72" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D165" s="72" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E165" s="74" t="n">
         <v>16</v>
@@ -17113,18 +16748,16 @@
         <f aca="false">IF(F165&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H165" s="75"/>
-      <c r="I165" s="10"/>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="74" t="n">
         <v>160</v>
       </c>
       <c r="C166" s="72" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D166" s="72" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E166" s="74" t="n">
         <v>17</v>
@@ -17136,18 +16769,16 @@
         <f aca="false">IF(F166&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H166" s="75"/>
-      <c r="I166" s="10"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="74" t="n">
         <v>161</v>
       </c>
       <c r="C167" s="72" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D167" s="72" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E167" s="74" t="n">
         <v>18</v>
@@ -17159,18 +16790,16 @@
         <f aca="false">IF(F167&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H167" s="75"/>
-      <c r="I167" s="10"/>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="74" t="n">
         <v>162</v>
       </c>
       <c r="C168" s="72" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="D168" s="72" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E168" s="74" t="n">
         <v>19</v>
@@ -17182,18 +16811,16 @@
         <f aca="false">IF(F168&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H168" s="75"/>
-      <c r="I168" s="10"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="74" t="n">
         <v>163</v>
       </c>
       <c r="C169" s="72" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D169" s="72" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E169" s="74" t="n">
         <v>20</v>
@@ -17205,18 +16832,16 @@
         <f aca="false">IF(F169&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H169" s="75"/>
-      <c r="I169" s="10"/>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="74" t="n">
         <v>164</v>
       </c>
       <c r="C170" s="72" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D170" s="72" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E170" s="74" t="n">
         <v>22</v>
@@ -17228,18 +16853,16 @@
         <f aca="false">IF(F170&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H170" s="75"/>
-      <c r="I170" s="10"/>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="74" t="n">
         <v>165</v>
       </c>
       <c r="C171" s="72" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D171" s="72" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E171" s="74" t="n">
         <v>23</v>
@@ -17251,18 +16874,16 @@
         <f aca="false">IF(F171&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H171" s="75"/>
-      <c r="I171" s="10"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="74" t="n">
         <v>166</v>
       </c>
       <c r="C172" s="72" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D172" s="72" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E172" s="74" t="n">
         <v>24</v>
@@ -17274,20 +16895,16 @@
         <f aca="false">IF(F172&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H172" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I172" s="10"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="74" t="n">
         <v>167</v>
       </c>
       <c r="C173" s="72" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D173" s="72" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E173" s="74" t="n">
         <v>1</v>
@@ -17299,18 +16916,16 @@
         <f aca="false">IF(F173&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H173" s="75"/>
-      <c r="I173" s="10"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="74" t="n">
         <v>168</v>
       </c>
       <c r="C174" s="72" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D174" s="72" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E174" s="74" t="n">
         <v>2</v>
@@ -17322,18 +16937,16 @@
         <f aca="false">IF(F174&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H174" s="75"/>
-      <c r="I174" s="10"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="74" t="n">
         <v>169</v>
       </c>
       <c r="C175" s="72" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D175" s="72" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E175" s="74" t="n">
         <v>3</v>
@@ -17345,20 +16958,16 @@
         <f aca="false">IF(F175&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H175" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I175" s="10"/>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="74" t="n">
         <v>170</v>
       </c>
       <c r="C176" s="72" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D176" s="72" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E176" s="74" t="n">
         <v>5</v>
@@ -17370,18 +16979,16 @@
         <f aca="false">IF(F176&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H176" s="75"/>
-      <c r="I176" s="10"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="74" t="n">
         <v>171</v>
       </c>
       <c r="C177" s="72" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D177" s="72" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E177" s="74" t="n">
         <v>6</v>
@@ -17393,18 +17000,16 @@
         <f aca="false">IF(F177&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H177" s="75"/>
-      <c r="I177" s="10"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="74" t="n">
         <v>172</v>
       </c>
       <c r="C178" s="72" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D178" s="72" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E178" s="74" t="n">
         <v>7</v>
@@ -17416,18 +17021,16 @@
         <f aca="false">IF(F178&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H178" s="75"/>
-      <c r="I178" s="10"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="74" t="n">
         <v>173</v>
       </c>
       <c r="C179" s="72" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D179" s="72" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E179" s="74" t="n">
         <v>8</v>
@@ -17439,18 +17042,16 @@
         <f aca="false">IF(F179&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H179" s="75"/>
-      <c r="I179" s="10"/>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="74" t="n">
         <v>174</v>
       </c>
       <c r="C180" s="72" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D180" s="72" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E180" s="74" t="n">
         <v>9</v>
@@ -17462,18 +17063,16 @@
         <f aca="false">IF(F180&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H180" s="75"/>
-      <c r="I180" s="10"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="74" t="n">
         <v>175</v>
       </c>
       <c r="C181" s="72" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D181" s="72" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E181" s="74" t="n">
         <v>12</v>
@@ -17485,18 +17084,16 @@
         <f aca="false">IF(F181&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H181" s="75"/>
-      <c r="I181" s="10"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="74" t="n">
         <v>176</v>
       </c>
       <c r="C182" s="72" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D182" s="72" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E182" s="74" t="n">
         <v>15</v>
@@ -17508,18 +17105,16 @@
         <f aca="false">IF(F182&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H182" s="75"/>
-      <c r="I182" s="10"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="74" t="n">
         <v>177</v>
       </c>
       <c r="C183" s="72" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D183" s="72" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E183" s="74" t="n">
         <v>16</v>
@@ -17531,18 +17126,16 @@
         <f aca="false">IF(F183&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H183" s="75"/>
-      <c r="I183" s="10"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="74" t="n">
         <v>178</v>
       </c>
       <c r="C184" s="72" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D184" s="72" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E184" s="74" t="n">
         <v>18</v>
@@ -17554,18 +17147,16 @@
         <f aca="false">IF(F184&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H184" s="75"/>
-      <c r="I184" s="10"/>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="74" t="n">
         <v>179</v>
       </c>
       <c r="C185" s="72" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D185" s="72" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E185" s="74" t="n">
         <v>20</v>
@@ -17577,18 +17168,16 @@
         <f aca="false">IF(F185&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H185" s="75"/>
-      <c r="I185" s="10"/>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="74" t="n">
         <v>180</v>
       </c>
       <c r="C186" s="72" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D186" s="72" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E186" s="74" t="n">
         <v>22</v>
@@ -17600,18 +17189,16 @@
         <f aca="false">IF(F186&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H186" s="75"/>
-      <c r="I186" s="10"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="74" t="n">
         <v>181</v>
       </c>
       <c r="C187" s="72" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D187" s="72" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E187" s="74" t="n">
         <v>1</v>
@@ -17623,18 +17210,16 @@
         <f aca="false">IF(F187&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H187" s="75"/>
-      <c r="I187" s="10"/>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="74" t="n">
         <v>182</v>
       </c>
       <c r="C188" s="72" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D188" s="72" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E188" s="74" t="n">
         <v>2</v>
@@ -17646,18 +17231,16 @@
         <f aca="false">IF(F188&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H188" s="75"/>
-      <c r="I188" s="10"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="74" t="n">
         <v>183</v>
       </c>
       <c r="C189" s="72" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D189" s="72" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E189" s="74" t="n">
         <v>3</v>
@@ -17669,18 +17252,16 @@
         <f aca="false">IF(F189&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H189" s="75"/>
-      <c r="I189" s="10"/>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="74" t="n">
         <v>184</v>
       </c>
       <c r="C190" s="72" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D190" s="72" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E190" s="74" t="n">
         <v>5</v>
@@ -17692,18 +17273,16 @@
         <f aca="false">IF(F190&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H190" s="75"/>
-      <c r="I190" s="10"/>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="74" t="n">
         <v>185</v>
       </c>
       <c r="C191" s="72" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D191" s="72" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E191" s="74" t="n">
         <v>7</v>
@@ -17715,18 +17294,16 @@
         <f aca="false">IF(F191&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H191" s="75"/>
-      <c r="I191" s="10"/>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="74" t="n">
         <v>186</v>
       </c>
       <c r="C192" s="72" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D192" s="72" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E192" s="74" t="n">
         <v>9</v>
@@ -17738,18 +17315,16 @@
         <f aca="false">IF(F192&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H192" s="75"/>
-      <c r="I192" s="10"/>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="74" t="n">
         <v>187</v>
       </c>
       <c r="C193" s="72" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D193" s="72" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E193" s="74" t="n">
         <v>10</v>
@@ -17761,18 +17336,16 @@
         <f aca="false">IF(F193&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H193" s="75"/>
-      <c r="I193" s="10"/>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="74" t="n">
         <v>188</v>
       </c>
       <c r="C194" s="72" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D194" s="72" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E194" s="74" t="n">
         <v>11</v>
@@ -17784,18 +17357,16 @@
         <f aca="false">IF(F194&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H194" s="75"/>
-      <c r="I194" s="10"/>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="74" t="n">
         <v>189</v>
       </c>
       <c r="C195" s="72" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D195" s="72" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E195" s="74" t="n">
         <v>12</v>
@@ -17807,18 +17378,16 @@
         <f aca="false">IF(F195&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H195" s="75"/>
-      <c r="I195" s="10"/>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="74" t="n">
         <v>190</v>
       </c>
       <c r="C196" s="72" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D196" s="72" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E196" s="74" t="n">
         <v>15</v>
@@ -17830,18 +17399,16 @@
         <f aca="false">IF(F196&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H196" s="75"/>
-      <c r="I196" s="10"/>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="74" t="n">
         <v>191</v>
       </c>
       <c r="C197" s="72" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D197" s="72" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E197" s="74" t="n">
         <v>16</v>
@@ -17853,18 +17420,16 @@
         <f aca="false">IF(F197&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H197" s="75"/>
-      <c r="I197" s="10"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="74" t="n">
         <v>192</v>
       </c>
       <c r="C198" s="72" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D198" s="72" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E198" s="74" t="n">
         <v>17</v>
@@ -17876,18 +17441,16 @@
         <f aca="false">IF(F198&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H198" s="75"/>
-      <c r="I198" s="10"/>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="74" t="n">
         <v>193</v>
       </c>
       <c r="C199" s="72" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D199" s="72" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E199" s="74" t="n">
         <v>18</v>
@@ -17899,8 +17462,6 @@
         <f aca="false">IF(F199&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H199" s="75"/>
-      <c r="I199" s="10"/>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="74" t="n">
@@ -17910,7 +17471,7 @@
         <v>34</v>
       </c>
       <c r="D200" s="72" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E200" s="74" t="n">
         <v>19</v>
@@ -17922,18 +17483,16 @@
         <f aca="false">IF(F200&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H200" s="75"/>
-      <c r="I200" s="10"/>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="74" t="n">
         <v>195</v>
       </c>
       <c r="C201" s="72" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D201" s="72" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E201" s="74" t="n">
         <v>20</v>
@@ -17945,18 +17504,16 @@
         <f aca="false">IF(F201&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H201" s="75"/>
-      <c r="I201" s="10"/>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="74" t="n">
         <v>196</v>
       </c>
       <c r="C202" s="72" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D202" s="72" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E202" s="74" t="n">
         <v>21</v>
@@ -17968,18 +17525,16 @@
         <f aca="false">IF(F202&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H202" s="75"/>
-      <c r="I202" s="10"/>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="74" t="n">
         <v>197</v>
       </c>
       <c r="C203" s="72" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D203" s="72" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E203" s="74" t="n">
         <v>22</v>
@@ -17991,18 +17546,16 @@
         <f aca="false">IF(F203&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H203" s="75"/>
-      <c r="I203" s="10"/>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="74" t="n">
         <v>198</v>
       </c>
       <c r="C204" s="72" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D204" s="72" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E204" s="74" t="n">
         <v>23</v>
@@ -18014,18 +17567,16 @@
         <f aca="false">IF(F204&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H204" s="75"/>
-      <c r="I204" s="10"/>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="74" t="n">
         <v>199</v>
       </c>
       <c r="C205" s="72" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D205" s="72" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E205" s="74" t="n">
         <v>24</v>
@@ -18037,18 +17588,16 @@
         <f aca="false">IF(F205&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H205" s="75"/>
-      <c r="I205" s="10"/>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="74" t="n">
         <v>200</v>
       </c>
       <c r="C206" s="72" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D206" s="72" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E206" s="74" t="n">
         <v>25</v>
@@ -18060,18 +17609,16 @@
         <f aca="false">IF(F206&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H206" s="75"/>
-      <c r="I206" s="10"/>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="74" t="n">
         <v>201</v>
       </c>
       <c r="C207" s="72" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D207" s="72" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E207" s="74" t="n">
         <v>1</v>
@@ -18083,18 +17630,16 @@
         <f aca="false">IF(F207&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H207" s="75"/>
-      <c r="I207" s="10"/>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="74" t="n">
         <v>202</v>
       </c>
       <c r="C208" s="72" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D208" s="72" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E208" s="74" t="n">
         <v>5</v>
@@ -18106,18 +17651,16 @@
         <f aca="false">IF(F208&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H208" s="75"/>
-      <c r="I208" s="10"/>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="74" t="n">
         <v>203</v>
       </c>
       <c r="C209" s="72" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D209" s="72" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E209" s="74" t="n">
         <v>10</v>
@@ -18129,18 +17672,16 @@
         <f aca="false">IF(F209&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H209" s="75"/>
-      <c r="I209" s="10"/>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="74" t="n">
         <v>204</v>
       </c>
       <c r="C210" s="72" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D210" s="72" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E210" s="74" t="n">
         <v>17</v>
@@ -18152,18 +17693,16 @@
         <f aca="false">IF(F210&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H210" s="75"/>
-      <c r="I210" s="10"/>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="74" t="n">
         <v>205</v>
       </c>
       <c r="C211" s="72" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D211" s="72" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E211" s="74" t="n">
         <v>19</v>
@@ -18175,18 +17714,16 @@
         <f aca="false">IF(F211&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H211" s="75"/>
-      <c r="I211" s="10"/>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="74" t="n">
         <v>206</v>
       </c>
       <c r="C212" s="72" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D212" s="72" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E212" s="74" t="n">
         <v>21</v>
@@ -18198,18 +17735,16 @@
         <f aca="false">IF(F212&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H212" s="75"/>
-      <c r="I212" s="10"/>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="74" t="n">
         <v>207</v>
       </c>
       <c r="C213" s="72" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D213" s="72" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E213" s="74" t="n">
         <v>22</v>
@@ -18221,18 +17756,16 @@
         <f aca="false">IF(F213&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H213" s="75"/>
-      <c r="I213" s="10"/>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="74" t="n">
         <v>208</v>
       </c>
       <c r="C214" s="72" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D214" s="72" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E214" s="74" t="n">
         <v>26</v>
@@ -18244,18 +17777,16 @@
         <f aca="false">IF(F214&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H214" s="75"/>
-      <c r="I214" s="10"/>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="74" t="n">
         <v>209</v>
       </c>
       <c r="C215" s="72" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D215" s="72" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E215" s="74" t="n">
         <v>27</v>
@@ -18267,18 +17798,16 @@
         <f aca="false">IF(F215&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H215" s="75"/>
-      <c r="I215" s="10"/>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="74" t="n">
         <v>210</v>
       </c>
       <c r="C216" s="72" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D216" s="72" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E216" s="74" t="n">
         <v>2</v>
@@ -18290,18 +17819,16 @@
         <f aca="false">IF(F216&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H216" s="75"/>
-      <c r="I216" s="10"/>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="74" t="n">
         <v>211</v>
       </c>
       <c r="C217" s="72" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D217" s="72" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E217" s="74" t="n">
         <v>3</v>
@@ -18313,18 +17840,16 @@
         <f aca="false">IF(F217&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H217" s="75"/>
-      <c r="I217" s="10"/>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="74" t="n">
         <v>212</v>
       </c>
       <c r="C218" s="72" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D218" s="72" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E218" s="74" t="n">
         <v>6</v>
@@ -18336,18 +17861,16 @@
         <f aca="false">IF(F218&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H218" s="75"/>
-      <c r="I218" s="10"/>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="74" t="n">
         <v>213</v>
       </c>
       <c r="C219" s="72" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D219" s="72" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E219" s="74" t="n">
         <v>9</v>
@@ -18359,18 +17882,16 @@
         <f aca="false">IF(F219&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H219" s="75"/>
-      <c r="I219" s="10"/>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="74" t="n">
         <v>214</v>
       </c>
       <c r="C220" s="72" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D220" s="72" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E220" s="74" t="n">
         <v>10</v>
@@ -18382,18 +17903,16 @@
         <f aca="false">IF(F220&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H220" s="75"/>
-      <c r="I220" s="10"/>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="74" t="n">
         <v>215</v>
       </c>
       <c r="C221" s="72" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D221" s="72" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E221" s="74" t="n">
         <v>11</v>
@@ -18405,18 +17924,16 @@
         <f aca="false">IF(F221&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H221" s="75"/>
-      <c r="I221" s="10"/>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="74" t="n">
         <v>216</v>
       </c>
       <c r="C222" s="72" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D222" s="72" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E222" s="74" t="n">
         <v>17</v>
@@ -18428,18 +17945,16 @@
         <f aca="false">IF(F222&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H222" s="75"/>
-      <c r="I222" s="10"/>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="74" t="n">
         <v>217</v>
       </c>
       <c r="C223" s="72" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D223" s="72" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E223" s="74" t="n">
         <v>18</v>
@@ -18451,18 +17966,16 @@
         <f aca="false">IF(F223&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H223" s="75"/>
-      <c r="I223" s="10"/>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="74" t="n">
         <v>218</v>
       </c>
       <c r="C224" s="72" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D224" s="72" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E224" s="74" t="n">
         <v>19</v>
@@ -18474,18 +17987,16 @@
         <f aca="false">IF(F224&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H224" s="75"/>
-      <c r="I224" s="10"/>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="74" t="n">
         <v>219</v>
       </c>
       <c r="C225" s="72" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D225" s="72" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E225" s="74" t="n">
         <v>21</v>
@@ -18497,18 +18008,16 @@
         <f aca="false">IF(F225&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H225" s="75"/>
-      <c r="I225" s="10"/>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="74" t="n">
         <v>220</v>
       </c>
       <c r="C226" s="72" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D226" s="72" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E226" s="74" t="n">
         <v>2</v>
@@ -18520,18 +18029,16 @@
         <f aca="false">IF(F226&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H226" s="75"/>
-      <c r="I226" s="10"/>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="74" t="n">
         <v>221</v>
       </c>
       <c r="C227" s="72" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D227" s="72" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E227" s="74" t="n">
         <v>3</v>
@@ -18543,18 +18050,16 @@
         <f aca="false">IF(F227&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H227" s="75"/>
-      <c r="I227" s="10"/>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="74" t="n">
         <v>222</v>
       </c>
       <c r="C228" s="72" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D228" s="72" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E228" s="74" t="n">
         <v>5</v>
@@ -18566,18 +18071,16 @@
         <f aca="false">IF(F228&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H228" s="75"/>
-      <c r="I228" s="10"/>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="74" t="n">
         <v>223</v>
       </c>
       <c r="C229" s="72" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D229" s="72" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E229" s="74" t="n">
         <v>8</v>
@@ -18589,18 +18092,16 @@
         <f aca="false">IF(F229&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H229" s="75"/>
-      <c r="I229" s="10"/>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="74" t="n">
         <v>224</v>
       </c>
       <c r="C230" s="72" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D230" s="72" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E230" s="74" t="n">
         <v>10</v>
@@ -18612,18 +18113,16 @@
         <f aca="false">IF(F230&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H230" s="75"/>
-      <c r="I230" s="10"/>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="74" t="n">
         <v>225</v>
       </c>
       <c r="C231" s="72" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D231" s="72" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E231" s="74" t="n">
         <v>15</v>
@@ -18635,18 +18134,16 @@
         <f aca="false">IF(F231&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H231" s="75"/>
-      <c r="I231" s="10"/>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="74" t="n">
         <v>226</v>
       </c>
       <c r="C232" s="72" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D232" s="72" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E232" s="74" t="n">
         <v>1</v>
@@ -18658,18 +18155,16 @@
         <f aca="false">IF(F232&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H232" s="75"/>
-      <c r="I232" s="10"/>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="74" t="n">
         <v>227</v>
       </c>
       <c r="C233" s="72" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D233" s="72" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E233" s="74" t="n">
         <v>2</v>
@@ -18681,18 +18176,16 @@
         <f aca="false">IF(F233&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H233" s="75"/>
-      <c r="I233" s="10"/>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="74" t="n">
         <v>228</v>
       </c>
       <c r="C234" s="72" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D234" s="72" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E234" s="74" t="n">
         <v>5</v>
@@ -18704,18 +18197,16 @@
         <f aca="false">IF(F234&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H234" s="75"/>
-      <c r="I234" s="10"/>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="74" t="n">
         <v>229</v>
       </c>
       <c r="C235" s="72" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D235" s="72" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E235" s="74" t="n">
         <v>8</v>
@@ -18727,18 +18218,16 @@
         <f aca="false">IF(F235&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H235" s="75"/>
-      <c r="I235" s="10"/>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="74" t="n">
         <v>230</v>
       </c>
       <c r="C236" s="72" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D236" s="72" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E236" s="74" t="n">
         <v>10</v>
@@ -18750,18 +18239,16 @@
         <f aca="false">IF(F236&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H236" s="75"/>
-      <c r="I236" s="10"/>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="74" t="n">
         <v>231</v>
       </c>
       <c r="C237" s="72" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D237" s="72" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E237" s="74" t="n">
         <v>11</v>
@@ -18773,18 +18260,16 @@
         <f aca="false">IF(F237&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H237" s="75"/>
-      <c r="I237" s="10"/>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="74" t="n">
         <v>232</v>
       </c>
       <c r="C238" s="72" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="D238" s="72" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E238" s="74" t="n">
         <v>12</v>
@@ -18796,18 +18281,16 @@
         <f aca="false">IF(F238&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H238" s="75"/>
-      <c r="I238" s="10"/>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="74" t="n">
         <v>233</v>
       </c>
       <c r="C239" s="72" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D239" s="72" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E239" s="74" t="n">
         <v>15</v>
@@ -18819,18 +18302,16 @@
         <f aca="false">IF(F239&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H239" s="75"/>
-      <c r="I239" s="10"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="74" t="n">
         <v>234</v>
       </c>
       <c r="C240" s="72" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D240" s="72" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E240" s="74" t="n">
         <v>16</v>
@@ -18842,18 +18323,16 @@
         <f aca="false">IF(F240&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H240" s="75"/>
-      <c r="I240" s="10"/>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="74" t="n">
         <v>235</v>
       </c>
       <c r="C241" s="72" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D241" s="72" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E241" s="74" t="n">
         <v>17</v>
@@ -18865,18 +18344,16 @@
         <f aca="false">IF(F241&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H241" s="75"/>
-      <c r="I241" s="10"/>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="74" t="n">
         <v>236</v>
       </c>
       <c r="C242" s="72" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D242" s="72" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E242" s="74" t="n">
         <v>18</v>
@@ -18888,18 +18365,16 @@
         <f aca="false">IF(F242&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H242" s="75"/>
-      <c r="I242" s="10"/>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="74" t="n">
         <v>237</v>
       </c>
       <c r="C243" s="72" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D243" s="72" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E243" s="74" t="n">
         <v>20</v>
@@ -18911,18 +18386,16 @@
         <f aca="false">IF(F243&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H243" s="75"/>
-      <c r="I243" s="10"/>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="74" t="n">
         <v>238</v>
       </c>
       <c r="C244" s="72" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D244" s="72" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E244" s="74" t="n">
         <v>22</v>
@@ -18934,18 +18407,16 @@
         <f aca="false">IF(F244&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H244" s="75"/>
-      <c r="I244" s="10"/>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="74" t="n">
         <v>239</v>
       </c>
       <c r="C245" s="72" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D245" s="72" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E245" s="74" t="n">
         <v>24</v>
@@ -18957,18 +18428,16 @@
         <f aca="false">IF(F245&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H245" s="75"/>
-      <c r="I245" s="10"/>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="74" t="n">
         <v>240</v>
       </c>
       <c r="C246" s="72" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="D246" s="72" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E246" s="74" t="n">
         <v>25</v>
@@ -18980,18 +18449,16 @@
         <f aca="false">IF(F246&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H246" s="75"/>
-      <c r="I246" s="10"/>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="74" t="n">
         <v>241</v>
       </c>
       <c r="C247" s="72" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D247" s="72" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E247" s="74" t="n">
         <v>2</v>
@@ -19003,18 +18470,16 @@
         <f aca="false">IF(F247&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H247" s="75"/>
-      <c r="I247" s="10"/>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="74" t="n">
         <v>242</v>
       </c>
       <c r="C248" s="72" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="D248" s="72" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E248" s="74" t="n">
         <v>6</v>
@@ -19026,18 +18491,16 @@
         <f aca="false">IF(F248&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H248" s="75"/>
-      <c r="I248" s="10"/>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="74" t="n">
         <v>243</v>
       </c>
       <c r="C249" s="72" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D249" s="72" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E249" s="74" t="n">
         <v>9</v>
@@ -19049,50 +18512,42 @@
         <f aca="false">IF(F249&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H249" s="75"/>
-      <c r="I249" s="10"/>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="10"/>
       <c r="C250" s="72" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D250" s="10"/>
       <c r="E250" s="10"/>
-      <c r="F250" s="76" t="n">
+      <c r="F250" s="75" t="n">
         <v>5000000</v>
       </c>
       <c r="G250" s="10" t="str">
         <f aca="false">IF(F250&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H250" s="10" t="s">
-        <v>600</v>
-      </c>
-      <c r="I250" s="10"/>
-    </row>
-    <row r="251" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B251" s="77" t="s">
-        <v>601</v>
-      </c>
-      <c r="C251" s="77"/>
-      <c r="D251" s="77"/>
-      <c r="E251" s="77"/>
-      <c r="F251" s="78" t="n">
+    </row>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B251" s="76" t="s">
+        <v>594</v>
+      </c>
+      <c r="C251" s="76"/>
+      <c r="D251" s="76"/>
+      <c r="E251" s="76"/>
+      <c r="F251" s="77" t="n">
         <f aca="false">SUM(F7:F250)</f>
-        <v>64090000</v>
+        <v>64190000</v>
       </c>
       <c r="G251" s="1"/>
-      <c r="H251" s="1"/>
-      <c r="I251" s="1"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F253" s="79"/>
+      <c r="F253" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
     <mergeCell ref="B251:E251"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -19112,13 +18567,13 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="80" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="79" width="11.53"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
